--- a/Appendix Tables.xlsx
+++ b/Appendix Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\Metagenomics Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E343589-B31F-4CDF-AA2F-BB52C7D0CCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7941B919-2990-48EA-B9F3-2858C479C3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{4967EA6C-997E-4E43-AD60-FEFE8549756F}"/>
+    <workbookView xWindow="345" yWindow="735" windowWidth="26355" windowHeight="13140" firstSheet="4" activeTab="5" xr2:uid="{4967EA6C-997E-4E43-AD60-FEFE8549756F}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecoli short reads" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="217">
   <si>
     <t>MORA</t>
   </si>
@@ -714,6 +714,12 @@
   </si>
   <si>
     <t>Molarity (10⁻¹⁵)</t>
+  </si>
+  <si>
+    <t>Percent of Bases Assigned to each Reference</t>
+  </si>
+  <si>
+    <t>Basses Assigned to each Reference</t>
   </si>
 </sst>
 </file>
@@ -1626,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499367D8-E884-4D0A-881E-7989336A8D17}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>332005</v>
+        <v>332007</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>23</v>
@@ -2335,7 +2341,7 @@
       </c>
       <c r="B53" s="16">
         <f>SUM(B3:B52)</f>
-        <v>950778</v>
+        <v>950780</v>
       </c>
     </row>
   </sheetData>
@@ -3581,13 +3587,13 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
@@ -3596,398 +3602,404 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="41"/>
-      <c r="B1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>138</v>
+      <c r="B1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" t="s">
+        <v>216</v>
       </c>
       <c r="G1" s="40"/>
       <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="31">
-        <v>0.18886326203853998</v>
-      </c>
-      <c r="C2" s="41">
-        <v>0.17739078238667003</v>
-      </c>
-      <c r="D2" s="41">
-        <v>7.26</v>
-      </c>
-      <c r="E2" s="31">
-        <v>457533040</v>
-      </c>
-      <c r="F2" s="41">
-        <v>429740242</v>
+      <c r="A2" s="41"/>
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>138</v>
       </c>
       <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B3" s="31">
-        <v>0.16853865751423319</v>
+        <v>0.18886326203853998</v>
       </c>
       <c r="C3" s="41">
-        <v>0.17729583498772139</v>
+        <v>0.17739078238667003</v>
       </c>
       <c r="D3" s="41">
-        <v>7.42</v>
+        <v>7.26</v>
       </c>
       <c r="E3" s="31">
-        <v>408295417</v>
+        <v>457533040</v>
       </c>
       <c r="F3" s="41">
-        <v>429510226</v>
+        <v>429740242</v>
       </c>
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B4" s="31">
-        <v>0.17808503859665678</v>
+        <v>0.16853865751423319</v>
       </c>
       <c r="C4" s="41">
-        <v>0.18174135801646266</v>
+        <v>0.17729583498772139</v>
       </c>
       <c r="D4" s="41">
-        <v>5.95</v>
+        <v>7.42</v>
       </c>
       <c r="E4" s="31">
-        <v>431422121</v>
+        <v>408295417</v>
       </c>
       <c r="F4" s="41">
-        <v>440279783</v>
+        <v>429510226</v>
       </c>
       <c r="H4" s="40"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="31">
-        <v>0.12468887457939401</v>
+        <v>0.17808503859665678</v>
       </c>
       <c r="C5" s="41">
-        <v>0.12861802453441351</v>
+        <v>0.18174135801646266</v>
       </c>
       <c r="D5" s="41">
-        <v>7.1</v>
+        <v>5.95</v>
       </c>
       <c r="E5" s="31">
-        <v>302066581</v>
+        <v>431422121</v>
       </c>
       <c r="F5" s="41">
-        <v>311585192</v>
+        <v>440279783</v>
       </c>
       <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="31">
-        <v>4.3193633482996818E-2</v>
+        <v>0.12468887457939401</v>
       </c>
       <c r="C6" s="41">
-        <v>4.4703379105591953E-2</v>
+        <v>0.12861802453441351</v>
       </c>
       <c r="D6" s="41">
-        <v>3.37</v>
+        <v>7.1</v>
       </c>
       <c r="E6" s="31">
-        <v>104639273</v>
+        <v>302066581</v>
       </c>
       <c r="F6" s="41">
-        <v>108296726</v>
+        <v>311585192</v>
       </c>
       <c r="H6" s="40"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="31">
-        <v>7.3946954664508388E-2</v>
+        <v>4.3193633482996818E-2</v>
       </c>
       <c r="C7" s="41">
-        <v>7.5408413399086119E-2</v>
+        <v>4.4703379105591953E-2</v>
       </c>
       <c r="D7" s="41">
-        <v>3.06</v>
+        <v>3.37</v>
       </c>
       <c r="E7" s="31">
-        <v>179141113</v>
+        <v>104639273</v>
       </c>
       <c r="F7" s="41">
-        <v>182681588</v>
+        <v>108296726</v>
       </c>
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="31">
-        <v>3.8949669760706525E-2</v>
+        <v>7.3946954664508388E-2</v>
       </c>
       <c r="C8" s="41">
-        <v>3.9815651577264174E-2</v>
+        <v>7.5408413399086119E-2</v>
       </c>
       <c r="D8" s="41">
-        <v>1.61</v>
+        <v>3.06</v>
       </c>
       <c r="E8" s="31">
-        <v>94358006</v>
+        <v>179141113</v>
       </c>
       <c r="F8" s="41">
-        <v>96455901</v>
+        <v>182681588</v>
       </c>
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="31">
-        <v>1.3609843779240604E-2</v>
+        <v>3.8949669760706525E-2</v>
       </c>
       <c r="C9" s="41">
-        <v>1.3921325950201091E-2</v>
+        <v>3.9815651577264174E-2</v>
       </c>
       <c r="D9" s="41">
-        <v>0.74</v>
+        <v>1.61</v>
       </c>
       <c r="E9" s="31">
-        <v>32970696</v>
+        <v>94358006</v>
       </c>
       <c r="F9" s="41">
-        <v>33725281</v>
+        <v>96455901</v>
       </c>
       <c r="H9" s="40"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B10" s="31">
-        <v>1.8261628573256649E-2</v>
+        <v>1.3609843779240604E-2</v>
       </c>
       <c r="C10" s="41">
-        <v>1.8346841651279745E-2</v>
+        <v>1.3921325950201091E-2</v>
       </c>
       <c r="D10" s="41">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="E10" s="31">
-        <v>44239935</v>
+        <v>32970696</v>
       </c>
       <c r="F10" s="41">
-        <v>44446369</v>
+        <v>33725281</v>
       </c>
       <c r="H10" s="40"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B11" s="31">
-        <v>1.2881805570686114E-2</v>
+        <v>1.8261628573256649E-2</v>
       </c>
       <c r="C11" s="41">
-        <v>1.3128261966009351E-2</v>
+        <v>1.8346841651279745E-2</v>
       </c>
       <c r="D11" s="41">
         <v>0.43</v>
       </c>
       <c r="E11" s="31">
-        <v>31206978</v>
+        <v>44239935</v>
       </c>
       <c r="F11" s="41">
-        <v>31804034</v>
+        <v>44446369</v>
       </c>
       <c r="H11" s="40"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B12" s="31">
-        <v>7.716333701856897E-5</v>
+        <v>1.2881805570686114E-2</v>
       </c>
       <c r="C12" s="41">
-        <v>0</v>
+        <v>1.3128261966009351E-2</v>
       </c>
       <c r="D12" s="41">
-        <v>0.77</v>
+        <v>0.43</v>
       </c>
       <c r="E12" s="31">
-        <v>186933</v>
+        <v>31206978</v>
       </c>
       <c r="F12" s="41">
-        <v>0</v>
+        <v>31804034</v>
       </c>
       <c r="H12" s="40"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B13" s="31">
-        <v>3.1989952684868164E-2</v>
+        <v>7.716333701856897E-5</v>
       </c>
       <c r="C13" s="41">
-        <v>3.065412456283572E-2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="41">
+        <v>0.77</v>
+      </c>
+      <c r="E13" s="31">
+        <v>186933</v>
+      </c>
+      <c r="F13" s="41">
         <v>0</v>
-      </c>
-      <c r="E13" s="31">
-        <v>77497657</v>
-      </c>
-      <c r="F13" s="41">
-        <v>74261530</v>
       </c>
       <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B14" s="31">
-        <v>1.6518763260231113E-2</v>
+        <v>3.1989952684868164E-2</v>
       </c>
       <c r="C14" s="41">
-        <v>1.5749674303334585E-2</v>
+        <v>3.065412456283572E-2</v>
       </c>
       <c r="D14" s="41">
         <v>0</v>
       </c>
       <c r="E14" s="31">
-        <v>40017735</v>
+        <v>77497657</v>
       </c>
       <c r="F14" s="41">
-        <v>38154569</v>
+        <v>74261530</v>
       </c>
       <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B15" s="31">
-        <v>5.2757022589552983E-3</v>
+        <v>1.6518763260231113E-2</v>
       </c>
       <c r="C15" s="41">
-        <v>5.2079950250561429E-3</v>
+        <v>1.5749674303334585E-2</v>
       </c>
       <c r="D15" s="41">
         <v>0</v>
       </c>
       <c r="E15" s="31">
-        <v>12780718</v>
+        <v>40017735</v>
       </c>
       <c r="F15" s="41">
-        <v>12616693</v>
+        <v>38154569</v>
       </c>
       <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="B16" s="31">
-        <v>1.9025846241829788E-2</v>
+        <v>5.2757022589552983E-3</v>
       </c>
       <c r="C16" s="41">
-        <v>1.8402712244837131E-2</v>
+        <v>5.2079950250561429E-3</v>
       </c>
       <c r="D16" s="41">
         <v>0</v>
       </c>
       <c r="E16" s="31">
-        <v>46091300</v>
+        <v>12780718</v>
       </c>
       <c r="F16" s="41">
-        <v>44581719</v>
+        <v>12616693</v>
       </c>
       <c r="H16" s="40"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="B17" s="31">
+        <v>1.9025846241829788E-2</v>
+      </c>
+      <c r="C17" s="41">
+        <v>1.8402712244837131E-2</v>
+      </c>
+      <c r="D17" s="41">
         <v>0</v>
       </c>
-      <c r="C17" s="41">
-        <v>0</v>
-      </c>
-      <c r="D17" s="41">
-        <v>7.18</v>
-      </c>
       <c r="E17" s="31">
-        <v>0</v>
+        <v>46091300</v>
       </c>
       <c r="F17" s="41">
-        <v>0</v>
+        <v>44581719</v>
       </c>
       <c r="H17" s="40"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B18" s="31">
+        <v>0</v>
+      </c>
+      <c r="C18" s="41">
+        <v>0</v>
+      </c>
+      <c r="D18" s="41">
+        <v>7.18</v>
+      </c>
+      <c r="E18" s="31">
+        <v>0</v>
+      </c>
+      <c r="F18" s="41">
+        <v>0</v>
+      </c>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B19" s="31">
         <v>6.6093203656878E-2</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C19" s="41">
         <v>5.9615620289236435E-2</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D19" s="41">
         <v>0</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E19" s="31">
         <v>160114911</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F19" s="41">
         <v>144422561</v>
       </c>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40" t="s">
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E20" s="41">
         <v>2422562414</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F20" s="41">
         <v>2422562414</v>
       </c>
-      <c r="H19" s="40"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H20" s="40"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4142,7 +4154,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4467,6 +4479,12 @@
         <v>457.97</v>
       </c>
     </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>C6+C5</f>
+        <v>28103.337</v>
+      </c>
+    </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>193</v>
@@ -4785,6 +4803,12 @@
       </c>
       <c r="K21" s="18">
         <v>758.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f>C17+C16</f>
+        <v>27378.4542</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -5962,8 +5986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA81989-FB0A-4289-BA84-6A79E0F2D2A2}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7226,17 +7250,17 @@
         <v>308407</v>
       </c>
       <c r="H34" s="51">
-        <v>641244</v>
+        <v>642373</v>
       </c>
       <c r="I34" s="51">
-        <v>1129</v>
+        <v>0</v>
       </c>
       <c r="J34" s="51">
         <v>0</v>
       </c>
       <c r="K34" s="58">
         <f t="shared" si="2"/>
-        <v>32.4565322287418</v>
+        <v>32.437262037485013</v>
       </c>
       <c r="L34" s="58">
         <f t="shared" si="3"/>
@@ -7244,7 +7268,7 @@
       </c>
       <c r="M34" s="52">
         <f t="shared" si="5"/>
-        <v>32.475825329515793</v>
+        <v>32.437262037485013</v>
       </c>
     </row>
   </sheetData>

--- a/Appendix Tables.xlsx
+++ b/Appendix Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\Metagenomics Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41069FFC-9135-4D2F-BC9E-8D339D7BD0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894A6DB8-DF31-409D-A62A-22CC793699B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="555" windowWidth="15660" windowHeight="11820" firstSheet="2" activeTab="3" xr2:uid="{4967EA6C-997E-4E43-AD60-FEFE8549756F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{4967EA6C-997E-4E43-AD60-FEFE8549756F}"/>
   </bookViews>
   <sheets>
     <sheet name="A.1 Ecoli short reads" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="239">
   <si>
     <t>MORA</t>
   </si>
@@ -774,18 +774,9 @@
     <t>REFERENCE</t>
   </si>
   <si>
-    <t>Non-Filtered Data</t>
-  </si>
-  <si>
-    <t>Filtered Data</t>
-  </si>
-  <si>
     <t>Note:</t>
   </si>
   <si>
-    <t>Clark classifies and then aligns reads in a single step. When the user uses a different reference database, Clark has to rebuild the Hash files, adding an extra 20 minutes for REF-1 and 4 hours for REF-2.</t>
-  </si>
-  <si>
     <t>7793,43</t>
   </si>
   <si>
@@ -796,6 +787,12 @@
   </si>
   <si>
     <t>As Pathoscope2 has some parts that is written in python2, it was incompatible with new versions of SnakeMake. Hence we were unable to get CPU time.</t>
+  </si>
+  <si>
+    <t>Clark classifies and then aligns reads in a single step. When the user uses a different reference database, Clark has to rebuild the Hash files, adding an extra 20 minutes for REF-1 and 4 hours for REF-2. Here we included not only the first run, but also the second run of Clark to showcase the different runtimes.</t>
+  </si>
+  <si>
+    <t>2nd Run</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1261,18 +1258,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1282,37 +1284,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1320,6 +1309,9 @@
   <dxfs count="16">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1332,9 +1324,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1456,7 +1445,7 @@
     <sortCondition descending="1" ref="K2:K34"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4659213F-F32F-4A62-9648-A1603595518B}" uniqueName="1" name="Accession Number" totalsRowLabel="Total" queryTableFieldId="1" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4659213F-F32F-4A62-9648-A1603595518B}" uniqueName="1" name="Accession Number" totalsRowLabel="Total" queryTableFieldId="1" dataDxfId="14" totalsRowDxfId="13"/>
     <tableColumn id="2" xr3:uid="{FBCB6A66-5DD3-4337-9ED2-9060FE272579}" uniqueName="2" name="Assignments" totalsRowFunction="custom" queryTableFieldId="2">
       <totalsRowFormula>SUM(clark_ecoli_abund[Assignments])</totalsRowFormula>
     </tableColumn>
@@ -1472,7 +1461,7 @@
     <sortCondition descending="1" ref="N19:N66"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1D1F080A-E096-492E-B569-0BA19C07489C}" uniqueName="1" name="Accession Number" totalsRowLabel="Total" queryTableFieldId="1" dataDxfId="3" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1D1F080A-E096-492E-B569-0BA19C07489C}" uniqueName="1" name="Accession Number" totalsRowLabel="Total" queryTableFieldId="1" dataDxfId="12" totalsRowDxfId="11"/>
     <tableColumn id="2" xr3:uid="{3A2FA36E-46EC-4BFB-8B3D-A6AF7ED37D81}" uniqueName="2" name="Assignments" totalsRowFunction="custom" queryTableFieldId="2">
       <totalsRowFormula>SUM(bowtie_abund3[Assignments])</totalsRowFormula>
     </tableColumn>
@@ -1485,18 +1474,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03E508E4-0F63-4093-A5FC-B01ED4075A7C}" name="ecoli" displayName="ecoli" ref="A1:L31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:L31" xr:uid="{03E508E4-0F63-4093-A5FC-B01ED4075A7C}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{BB62C68F-C88F-4C77-A444-FBBE97785B99}" uniqueName="1" name="Assembly Accession" queryTableFieldId="1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{DCF18D9D-3C8C-4246-A500-1B21D067114B}" uniqueName="2" name="Organism Name" queryTableFieldId="2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{0AE48684-F23A-404A-BEF2-CF56CFEB7886}" uniqueName="3" name="Organism Infraspecific Names Breed" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{E23A9D58-2285-4A78-9902-864AC61E567B}" uniqueName="4" name="Organism Infraspecific Names Strain" queryTableFieldId="4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{166581B8-4D93-4AE3-A786-3928553EEA4B}" uniqueName="5" name="Organism Infraspecific Names Cultivar" queryTableFieldId="5" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{F61DBBF3-B0EA-4FCA-B1CF-00DAE7E0CA79}" uniqueName="6" name="Organism Infraspecific Names Isolate" queryTableFieldId="6" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{F5A9A267-91F7-42B3-A0EF-A92B3A38C20A}" uniqueName="7" name="Organism Infraspecific Names Ecotype" queryTableFieldId="7" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{8E773E75-8391-4A9F-9700-A04C47010C2C}" uniqueName="8" name="Annotation Name" queryTableFieldId="8" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{BB62C68F-C88F-4C77-A444-FBBE97785B99}" uniqueName="1" name="Assembly Accession" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{DCF18D9D-3C8C-4246-A500-1B21D067114B}" uniqueName="2" name="Organism Name" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{0AE48684-F23A-404A-BEF2-CF56CFEB7886}" uniqueName="3" name="Organism Infraspecific Names Breed" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E23A9D58-2285-4A78-9902-864AC61E567B}" uniqueName="4" name="Organism Infraspecific Names Strain" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{166581B8-4D93-4AE3-A786-3928553EEA4B}" uniqueName="5" name="Organism Infraspecific Names Cultivar" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F61DBBF3-B0EA-4FCA-B1CF-00DAE7E0CA79}" uniqueName="6" name="Organism Infraspecific Names Isolate" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F5A9A267-91F7-42B3-A0EF-A92B3A38C20A}" uniqueName="7" name="Organism Infraspecific Names Ecotype" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8E773E75-8391-4A9F-9700-A04C47010C2C}" uniqueName="8" name="Annotation Name" queryTableFieldId="8" dataDxfId="3"/>
     <tableColumn id="9" xr3:uid="{32BC807D-E83D-48F6-981B-605EC04CBB51}" uniqueName="9" name="Assembly Stats Total Sequence Length" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{F1C69E9E-AEDA-4A49-AC36-33B09698FDAD}" uniqueName="10" name="Assembly Level" queryTableFieldId="10" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{426EA8DA-D0B6-4599-9D1B-AB529943F428}" uniqueName="11" name="Assembly Submission Date" queryTableFieldId="11" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{6420C074-2FE2-4055-BF60-25AB447101BC}" uniqueName="12" name="WGS project accession" queryTableFieldId="12" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{F1C69E9E-AEDA-4A49-AC36-33B09698FDAD}" uniqueName="10" name="Assembly Level" queryTableFieldId="10" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{426EA8DA-D0B6-4599-9D1B-AB529943F428}" uniqueName="11" name="Assembly Submission Date" queryTableFieldId="11" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{6420C074-2FE2-4055-BF60-25AB447101BC}" uniqueName="12" name="WGS project accession" queryTableFieldId="12" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1791,7 +1780,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1801,7 +1790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499367D8-E884-4D0A-881E-7989336A8D17}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
@@ -1828,7 +1817,7 @@
         <v>229</v>
       </c>
       <c r="M1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2763,7 +2752,7 @@
       <c r="H35">
         <v>1</v>
       </c>
-      <c r="J35" s="59" t="s">
+      <c r="J35" t="s">
         <v>67</v>
       </c>
       <c r="K35">
@@ -2987,7 +2976,7 @@
       <c r="B50" s="4">
         <v>2</v>
       </c>
-      <c r="M50" s="59" t="s">
+      <c r="M50" t="s">
         <v>228</v>
       </c>
       <c r="N50">
@@ -3001,7 +2990,7 @@
       <c r="B51" s="3">
         <v>1</v>
       </c>
-      <c r="M51" s="59" t="s">
+      <c r="M51" t="s">
         <v>67</v>
       </c>
       <c r="N51">
@@ -4671,10 +4660,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13241D78-0921-483B-A422-027E2F42B1D2}">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4685,12 +4674,12 @@
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18" t="s">
@@ -4724,10 +4713,10 @@
         <v>146</v>
       </c>
       <c r="N2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>155</v>
       </c>
@@ -4766,11 +4755,11 @@
         <v>140.09</v>
       </c>
       <c r="N3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
         <v>149</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -4806,11 +4795,11 @@
         <v>712.51</v>
       </c>
       <c r="N4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="71"/>
       <c r="B5" s="18" t="s">
         <v>151</v>
       </c>
@@ -4844,11 +4833,11 @@
         <v>98.84</v>
       </c>
       <c r="N5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
       <c r="B6" s="18" t="s">
         <v>152</v>
       </c>
@@ -4882,8 +4871,8 @@
         <v>99.55</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
         <v>153</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -4921,8 +4910,8 @@
         <v>99.55</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="70"/>
       <c r="B8" s="24" t="s">
         <v>147</v>
       </c>
@@ -4958,8 +4947,8 @@
         <v>756.14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -4997,8 +4986,8 @@
         <v>932.99</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="67"/>
       <c r="B10" s="18" t="s">
         <v>147</v>
       </c>
@@ -5034,8 +5023,8 @@
         <v>662.01</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>212</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -5073,8 +5062,8 @@
         <v>49.32</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="72"/>
       <c r="B12" s="24" t="s">
         <v>214</v>
       </c>
@@ -5110,8 +5099,8 @@
         <v>90.19</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
       <c r="B13" s="24" t="s">
         <v>215</v>
       </c>
@@ -5147,8 +5136,8 @@
         <v>584.14</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
       <c r="B14" s="24" t="s">
         <v>147</v>
       </c>
@@ -5184,8 +5173,8 @@
         <v>272.42</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="66" t="s">
         <v>224</v>
       </c>
       <c r="B15" s="18" t="s">
@@ -5222,9 +5211,39 @@
       <c r="L15" s="41">
         <v>94.09</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="O15" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="V15" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="W15" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
       <c r="B16" s="18" t="s">
         <v>226</v>
       </c>
@@ -5259,8 +5278,42 @@
       <c r="L16" s="41">
         <v>118.03</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>238</v>
+      </c>
+      <c r="O16" s="41">
+        <v>222.24930000000001</v>
+      </c>
+      <c r="P16" s="19">
+        <f t="shared" ref="P16" si="2">O16/86400</f>
+        <v>2.5723298611111112E-3</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>499.57</v>
+      </c>
+      <c r="R16" s="18">
+        <v>41086.959999999999</v>
+      </c>
+      <c r="S16" s="18">
+        <v>42766.8</v>
+      </c>
+      <c r="T16" s="18">
+        <v>41076.879999999997</v>
+      </c>
+      <c r="U16" s="18">
+        <v>41077.120000000003</v>
+      </c>
+      <c r="V16" s="18">
+        <v>0</v>
+      </c>
+      <c r="W16" s="18">
+        <v>17586.990000000002</v>
+      </c>
+      <c r="X16" s="18">
+        <v>221.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E17" s="42"/>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -5270,7 +5323,7 @@
       <c r="K17" s="42"/>
       <c r="L17" s="42"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -5283,7 +5336,7 @@
       <c r="K18" s="42"/>
       <c r="L18" s="42"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18" t="s">
@@ -5317,7 +5370,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>155</v>
       </c>
@@ -5328,7 +5381,7 @@
         <v>460.78300000000002</v>
       </c>
       <c r="D20" s="43">
-        <f t="shared" ref="D20:D24" si="2">C20/86400</f>
+        <f t="shared" ref="D20:D24" si="3">C20/86400</f>
         <v>5.3331365740740743E-3</v>
       </c>
       <c r="E20" s="44">
@@ -5356,8 +5409,8 @@
         <v>269.91000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="66" t="s">
         <v>149</v>
       </c>
       <c r="B21" s="18" t="s">
@@ -5367,7 +5420,7 @@
         <v>3137.1078000000002</v>
       </c>
       <c r="D21" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.6309118055555561E-2</v>
       </c>
       <c r="E21" s="41"/>
@@ -5393,8 +5446,8 @@
         <v>757.51</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="68"/>
       <c r="B22" s="18" t="s">
         <v>151</v>
       </c>
@@ -5402,7 +5455,7 @@
         <v>264.96199999999999</v>
       </c>
       <c r="D22" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.0666898148148146E-3</v>
       </c>
       <c r="E22" s="41"/>
@@ -5428,8 +5481,8 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="54"/>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="67"/>
       <c r="B23" s="18" t="s">
         <v>152</v>
       </c>
@@ -5437,7 +5490,7 @@
         <v>27846.427599999999</v>
       </c>
       <c r="D23" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.32229661574074076</v>
       </c>
       <c r="E23" s="41"/>
@@ -5463,7 +5516,7 @@
         <v>99.86</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="45" t="s">
         <v>153</v>
       </c>
@@ -5474,7 +5527,7 @@
         <v>23398.625</v>
       </c>
       <c r="D24" s="43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.27081741898148148</v>
       </c>
       <c r="E24" s="44">
@@ -5502,7 +5555,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="24" t="s">
         <v>147</v>
@@ -5539,8 +5592,8 @@
         <v>758.94</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="18" t="s">
@@ -5578,8 +5631,8 @@
         <v>1015.9</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="54"/>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="67"/>
       <c r="B27" s="18" t="s">
         <v>147</v>
       </c>
@@ -5615,7 +5668,7 @@
         <v>466.86</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="45" t="s">
         <v>212</v>
       </c>
@@ -5626,7 +5679,7 @@
         <v>264.0471</v>
       </c>
       <c r="D28" s="43">
-        <f t="shared" ref="D28:D33" si="3">C28/86400</f>
+        <f t="shared" ref="D28:D33" si="4">C28/86400</f>
         <v>3.0561006944444446E-3</v>
       </c>
       <c r="E28" s="44">
@@ -5654,7 +5707,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="46"/>
       <c r="B29" s="24" t="s">
         <v>214</v>
@@ -5663,7 +5716,7 @@
         <v>1747.5636999999999</v>
       </c>
       <c r="D29" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0226431712962963E-2</v>
       </c>
       <c r="E29" s="44">
@@ -5691,7 +5744,7 @@
         <v>101.04</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="46"/>
       <c r="B30" s="24" t="s">
         <v>215</v>
@@ -5700,7 +5753,7 @@
         <v>2760.2561000000001</v>
       </c>
       <c r="D30" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.1947408564814817E-2</v>
       </c>
       <c r="E30" s="44">
@@ -5728,7 +5781,7 @@
         <v>741.68</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="24" t="s">
         <v>147</v>
@@ -5737,7 +5790,7 @@
         <v>70.536799999999999</v>
       </c>
       <c r="D31" s="43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.1639814814814813E-4</v>
       </c>
       <c r="E31" s="44">
@@ -5765,8 +5818,8 @@
         <v>394.28</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="66" t="s">
         <v>224</v>
       </c>
       <c r="B32" s="18" t="s">
@@ -5776,7 +5829,7 @@
         <v>955.57770000000005</v>
       </c>
       <c r="D32" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1059927083333334E-2</v>
       </c>
       <c r="E32" s="41">
@@ -5803,9 +5856,39 @@
       <c r="L32" s="41">
         <v>39.53</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
+      <c r="O32" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q32" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="R32" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="S32" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="T32" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="U32" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="V32" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="W32" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="X32" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="67"/>
       <c r="B33" s="18" t="s">
         <v>226</v>
       </c>
@@ -5813,7 +5896,7 @@
         <v>16090.880499999999</v>
       </c>
       <c r="D33" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18623704282407408</v>
       </c>
       <c r="E33" s="41">
@@ -5840,8 +5923,42 @@
       <c r="L33" s="41">
         <v>101.06</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O33" s="41">
+        <v>311.63290000000001</v>
+      </c>
+      <c r="P33" s="19">
+        <f t="shared" ref="P33" si="5">O33/86400</f>
+        <v>3.6068622685185188E-3</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>961.07</v>
+      </c>
+      <c r="R33" s="18">
+        <v>91104.58</v>
+      </c>
+      <c r="S33" s="18">
+        <v>92052</v>
+      </c>
+      <c r="T33" s="18">
+        <v>91094.39</v>
+      </c>
+      <c r="U33" s="18">
+        <v>91094.62</v>
+      </c>
+      <c r="V33" s="18">
+        <v>3386.08</v>
+      </c>
+      <c r="W33" s="18">
+        <v>17586.990000000002</v>
+      </c>
+      <c r="X33" s="18">
+        <v>306.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -5854,7 +5971,7 @@
       <c r="K35" s="42"/>
       <c r="L35" s="42"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18" t="s">
@@ -5888,7 +6005,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
         <v>155</v>
       </c>
@@ -5899,7 +6016,7 @@
         <v>56.322899999999997</v>
       </c>
       <c r="D37" s="43">
-        <f t="shared" ref="D37:D46" si="4">C37/86400</f>
+        <f t="shared" ref="D37:D46" si="6">C37/86400</f>
         <v>6.5188541666666661E-4</v>
       </c>
       <c r="E37" s="44">
@@ -5927,8 +6044,8 @@
         <v>109.58</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="66" t="s">
         <v>156</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -5938,7 +6055,7 @@
         <v>105.9743</v>
       </c>
       <c r="D38" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2265543981481481E-3</v>
       </c>
       <c r="E38" s="41"/>
@@ -5964,8 +6081,8 @@
         <v>97.35</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="67"/>
       <c r="B39" s="18" t="s">
         <v>152</v>
       </c>
@@ -5973,7 +6090,7 @@
         <v>235.95249999999999</v>
       </c>
       <c r="D39" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7309317129629628E-3</v>
       </c>
       <c r="E39" s="41"/>
@@ -5999,7 +6116,7 @@
         <v>95.36</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>137</v>
       </c>
@@ -6010,7 +6127,7 @@
         <v>1074.8807999999999</v>
       </c>
       <c r="D40" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2440749999999999E-2</v>
       </c>
       <c r="E40" s="44">
@@ -6038,8 +6155,8 @@
         <v>753.19</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="53" t="s">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="66" t="s">
         <v>212</v>
       </c>
       <c r="B41" s="18" t="s">
@@ -6049,7 +6166,7 @@
         <v>261.57459999999998</v>
       </c>
       <c r="D41" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0274837962962959E-3</v>
       </c>
       <c r="E41" s="41">
@@ -6077,8 +6194,8 @@
         <v>51.48</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="68"/>
       <c r="B42" s="18" t="s">
         <v>221</v>
       </c>
@@ -6086,7 +6203,7 @@
         <v>155.9854</v>
       </c>
       <c r="D42" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8053865740740741E-3</v>
       </c>
       <c r="E42" s="41">
@@ -6114,8 +6231,8 @@
         <v>90.95</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="68"/>
       <c r="B43" s="18" t="s">
         <v>222</v>
       </c>
@@ -6123,7 +6240,7 @@
         <v>240.0121</v>
       </c>
       <c r="D43" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7779178240740741E-3</v>
       </c>
       <c r="E43" s="41">
@@ -6151,10 +6268,9 @@
         <v>585.13</v>
       </c>
       <c r="M43" s="21"/>
-      <c r="N43" s="58"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="67"/>
       <c r="B44" s="18" t="s">
         <v>147</v>
       </c>
@@ -6162,7 +6278,7 @@
         <v>193.08</v>
       </c>
       <c r="D44" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.2347222222222226E-3</v>
       </c>
       <c r="E44" s="41">
@@ -6190,8 +6306,8 @@
         <v>684.96</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="50" t="s">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="69" t="s">
         <v>224</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -6201,7 +6317,7 @@
         <v>327.44040000000001</v>
       </c>
       <c r="D45" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.7898194444444446E-3</v>
       </c>
       <c r="E45" s="44">
@@ -6228,9 +6344,39 @@
       <c r="L45" s="44">
         <v>95.25</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="O45" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="P45" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q45" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="R45" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="S45" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="T45" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="U45" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="V45" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="W45" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="X45" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="70"/>
       <c r="B46" s="24" t="s">
         <v>226</v>
       </c>
@@ -6238,7 +6384,7 @@
         <v>1570.1958</v>
       </c>
       <c r="D46" s="43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.81735625E-2</v>
       </c>
       <c r="E46" s="44">
@@ -6260,13 +6406,47 @@
         <v>1145.05</v>
       </c>
       <c r="K46" s="44" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L46" s="44">
         <v>312.06</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N46" t="s">
+        <v>238</v>
+      </c>
+      <c r="O46">
+        <v>521.64120000000003</v>
+      </c>
+      <c r="P46" s="65">
+        <f t="shared" ref="P46" si="7">O46/86400</f>
+        <v>6.0375138888888891E-3</v>
+      </c>
+      <c r="Q46">
+        <v>3851.08</v>
+      </c>
+      <c r="R46">
+        <v>74434.740000000005</v>
+      </c>
+      <c r="S46">
+        <v>75518.39</v>
+      </c>
+      <c r="T46">
+        <v>74418.8</v>
+      </c>
+      <c r="U46">
+        <v>74419.070000000007</v>
+      </c>
+      <c r="V46">
+        <v>45482.54</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>738.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>190</v>
       </c>
@@ -6279,7 +6459,7 @@
       <c r="K48" s="42"/>
       <c r="L48" s="42"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18" t="s">
@@ -6313,7 +6493,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>155</v>
       </c>
@@ -6324,7 +6504,7 @@
         <v>98.714399999999998</v>
       </c>
       <c r="D50" s="43">
-        <f t="shared" ref="D50:D60" si="5">C50/86400</f>
+        <f t="shared" ref="D50:D60" si="8">C50/86400</f>
         <v>1.1425277777777777E-3</v>
       </c>
       <c r="E50" s="44">
@@ -6352,8 +6532,8 @@
         <v>259.51</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="53" t="s">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="66" t="s">
         <v>1</v>
       </c>
       <c r="B51" s="18" t="s">
@@ -6363,7 +6543,7 @@
         <v>218.08170000000001</v>
       </c>
       <c r="D51" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5240937500000003E-3</v>
       </c>
       <c r="E51" s="41"/>
@@ -6389,8 +6569,8 @@
         <v>60.43</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="54"/>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="67"/>
       <c r="B52" s="18" t="s">
         <v>152</v>
       </c>
@@ -6398,7 +6578,7 @@
         <v>211.14920000000001</v>
       </c>
       <c r="D52" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.4438564814814817E-3</v>
       </c>
       <c r="E52" s="41"/>
@@ -6424,7 +6604,7 @@
         <v>91.95</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
         <v>137</v>
       </c>
@@ -6435,7 +6615,7 @@
         <v>8696.2919000000002</v>
       </c>
       <c r="D53" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.10065152662037037</v>
       </c>
       <c r="E53" s="44">
@@ -6463,7 +6643,7 @@
         <v>781.17</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="47"/>
       <c r="B54" s="24" t="s">
         <v>154</v>
@@ -6472,7 +6652,7 @@
         <v>304.67169999999999</v>
       </c>
       <c r="D54" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.5262928240740741E-3</v>
       </c>
       <c r="E54" s="44">
@@ -6500,8 +6680,8 @@
         <v>133.1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="53" t="s">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="66" t="s">
         <v>212</v>
       </c>
       <c r="B55" s="18" t="s">
@@ -6511,7 +6691,7 @@
         <v>324.1465</v>
       </c>
       <c r="D55" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.751695601851852E-3</v>
       </c>
       <c r="E55" s="41">
@@ -6539,8 +6719,8 @@
         <v>42.76</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A56" s="68"/>
       <c r="B56" s="18" t="s">
         <v>221</v>
       </c>
@@ -6548,7 +6728,7 @@
         <v>1769.1407999999999</v>
       </c>
       <c r="D56" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.0476166666666667E-2</v>
       </c>
       <c r="E56" s="41">
@@ -6576,8 +6756,8 @@
         <v>101.37</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A57" s="68"/>
       <c r="B57" s="18" t="s">
         <v>222</v>
       </c>
@@ -6585,7 +6765,7 @@
         <v>2800.4104000000002</v>
       </c>
       <c r="D57" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.241215740740741E-2</v>
       </c>
       <c r="E57" s="41">
@@ -6613,8 +6793,8 @@
         <v>737.25</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A58" s="67"/>
       <c r="B58" s="18" t="s">
         <v>147</v>
       </c>
@@ -6622,7 +6802,7 @@
         <v>326.09120000000001</v>
       </c>
       <c r="D58" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.7742037037037037E-3</v>
       </c>
       <c r="E58" s="41">
@@ -6650,8 +6830,8 @@
         <v>669.04</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="50" t="s">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A59" s="69" t="s">
         <v>224</v>
       </c>
       <c r="B59" s="24" t="s">
@@ -6661,7 +6841,7 @@
         <v>326.84469999999999</v>
       </c>
       <c r="D59" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.7829247685185184E-3</v>
       </c>
       <c r="E59" s="44">
@@ -6688,9 +6868,39 @@
       <c r="L59" s="44">
         <v>94.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="52"/>
+      <c r="O59" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="P59" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q59" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="R59" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="S59" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="T59" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="U59" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="V59" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="W59" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="X59" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A60" s="70"/>
       <c r="B60" s="24" t="s">
         <v>226</v>
       </c>
@@ -6698,7 +6908,7 @@
         <v>16802.7143</v>
       </c>
       <c r="D60" s="43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.1944758599537037</v>
       </c>
       <c r="E60" s="44">
@@ -6725,8 +6935,42 @@
       <c r="L60" s="44">
         <v>132.69999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N60" t="s">
+        <v>238</v>
+      </c>
+      <c r="O60" s="41">
+        <v>1043.0761</v>
+      </c>
+      <c r="P60" s="19">
+        <f t="shared" ref="P60" si="9">O60/86400</f>
+        <v>1.2072640046296296E-2</v>
+      </c>
+      <c r="Q60" s="18">
+        <v>7044.95</v>
+      </c>
+      <c r="R60" s="18">
+        <v>124265.27</v>
+      </c>
+      <c r="S60" s="18">
+        <v>124803.6</v>
+      </c>
+      <c r="T60" s="18">
+        <v>124275.98</v>
+      </c>
+      <c r="U60" s="18">
+        <v>124276.21</v>
+      </c>
+      <c r="V60" s="18">
+        <v>82740.94</v>
+      </c>
+      <c r="W60" s="18">
+        <v>0</v>
+      </c>
+      <c r="X60" s="18">
+        <v>675.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>216</v>
       </c>
@@ -6739,7 +6983,7 @@
       <c r="K62" s="42"/>
       <c r="L62" s="42"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18" t="s">
@@ -6773,7 +7017,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>155</v>
       </c>
@@ -6813,7 +7057,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B65" s="18" t="s">
@@ -6852,7 +7096,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
+      <c r="A66" s="67"/>
       <c r="B66" s="18" t="s">
         <v>147</v>
       </c>
@@ -6889,7 +7133,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="50" t="s">
+      <c r="A67" s="69" t="s">
         <v>224</v>
       </c>
       <c r="B67" s="24" t="s">
@@ -6899,7 +7143,7 @@
         <v>69.266999999999996</v>
       </c>
       <c r="D67" s="43">
-        <f t="shared" ref="D67:D68" si="6">C67/86400</f>
+        <f t="shared" ref="D67:D68" si="10">C67/86400</f>
         <v>8.017013888888888E-4</v>
       </c>
       <c r="E67" s="44">
@@ -6928,7 +7172,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="52"/>
+      <c r="A68" s="70"/>
       <c r="B68" s="24" t="s">
         <v>226</v>
       </c>
@@ -6936,7 +7180,7 @@
         <v>90.352099999999993</v>
       </c>
       <c r="D68" s="43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1.0457418981481481E-3</v>
       </c>
       <c r="E68" s="44">
@@ -6966,6 +7210,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A45:A46"/>
@@ -6977,11 +7226,6 @@
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="A41:A44"/>
     <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7017,42 +7261,42 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="G3" s="49" t="s">
+      <c r="E3" s="74"/>
+      <c r="G3" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="H3" s="56" t="s">
+      <c r="H3" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="56" t="s">
+      <c r="I3" s="74"/>
+      <c r="J3" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="K3" s="57"/>
+      <c r="K3" s="74"/>
       <c r="M3" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="56" t="s">
+      <c r="O3" s="74"/>
+      <c r="P3" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="Q3" s="57"/>
+      <c r="Q3" s="74"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="18" t="s">
         <v>165</v>
       </c>
@@ -7065,7 +7309,7 @@
       <c r="E4" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="71"/>
       <c r="H4" s="18" t="s">
         <v>165</v>
       </c>
@@ -7206,42 +7450,42 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="56" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="G10" s="49" t="s">
+      <c r="E10" s="74"/>
+      <c r="G10" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="56" t="s">
+      <c r="H10" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="56" t="s">
+      <c r="I10" s="74"/>
+      <c r="J10" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="K10" s="57"/>
+      <c r="K10" s="74"/>
       <c r="M10" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="N10" s="56" t="s">
+      <c r="N10" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="O10" s="57"/>
-      <c r="P10" s="56" t="s">
+      <c r="O10" s="74"/>
+      <c r="P10" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="Q10" s="57"/>
+      <c r="Q10" s="74"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="18" t="s">
         <v>165</v>
       </c>
@@ -7254,7 +7498,7 @@
       <c r="E11" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G11" s="49"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="18" t="s">
         <v>165</v>
       </c>
@@ -7395,42 +7639,42 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="56" t="s">
+      <c r="C17" s="74"/>
+      <c r="D17" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="G17" s="49" t="s">
+      <c r="E17" s="74"/>
+      <c r="G17" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="H17" s="56" t="s">
+      <c r="H17" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="56" t="s">
+      <c r="I17" s="74"/>
+      <c r="J17" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="K17" s="57"/>
+      <c r="K17" s="74"/>
       <c r="M17" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="N17" s="56" t="s">
+      <c r="N17" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="O17" s="57"/>
-      <c r="P17" s="56" t="s">
+      <c r="O17" s="74"/>
+      <c r="P17" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="Q17" s="57"/>
+      <c r="Q17" s="74"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="18" t="s">
         <v>165</v>
       </c>
@@ -7443,7 +7687,7 @@
       <c r="E18" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G18" s="49"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="18" t="s">
         <v>165</v>
       </c>
@@ -7601,42 +7845,42 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="56" t="s">
+      <c r="C25" s="74"/>
+      <c r="D25" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="G25" s="49" t="s">
+      <c r="E25" s="74"/>
+      <c r="G25" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="56" t="s">
+      <c r="I25" s="74"/>
+      <c r="J25" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="57"/>
+      <c r="K25" s="74"/>
       <c r="M25" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="N25" s="56" t="s">
+      <c r="N25" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="O25" s="57"/>
-      <c r="P25" s="56" t="s">
+      <c r="O25" s="74"/>
+      <c r="P25" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="Q25" s="57"/>
+      <c r="Q25" s="74"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="18" t="s">
         <v>165</v>
       </c>
@@ -7649,7 +7893,7 @@
       <c r="E26" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="G26" s="49"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="18" t="s">
         <v>165</v>
       </c>
@@ -7789,6 +8033,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="P25:Q25"/>
     <mergeCell ref="A17:A18"/>
@@ -7805,22 +8065,6 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7829,10 +8073,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA81989-FB0A-4289-BA84-6A79E0F2D2A2}">
-  <dimension ref="A1:AA72"/>
+  <dimension ref="A2:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="O29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7844,19 +8088,11 @@
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" t="s">
         <v>231</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -7892,47 +8128,8 @@
       <c r="M2" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="O2" t="s">
-        <v>167</v>
-      </c>
-      <c r="P2" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="S2" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="T2" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y2" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA2" s="18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>218</v>
       </c>
@@ -7950,7 +8147,7 @@
       </c>
       <c r="F3" s="27">
         <f t="shared" ref="F3:F5" si="0">G3+H3+I3+J3</f>
-        <v>1188818</v>
+        <v>1372177</v>
       </c>
       <c r="G3" s="27">
         <v>661775</v>
@@ -7959,68 +8156,25 @@
         <v>424496</v>
       </c>
       <c r="I3" s="27">
-        <v>40464</v>
+        <v>223823</v>
       </c>
       <c r="J3" s="27">
         <v>62083</v>
       </c>
       <c r="K3" s="27">
         <f>2/(1/L3+1/M3)</f>
-        <v>58.175746091691359</v>
+        <v>53.83681086604232</v>
       </c>
       <c r="L3" s="27">
         <f>G3/F3*100</f>
-        <v>55.666636945268323</v>
+        <v>48.228107598363771</v>
       </c>
       <c r="M3" s="28">
         <f t="shared" ref="M3:M5" si="1">G3/(G3+H3)*100</f>
         <v>60.921722111701406</v>
       </c>
-      <c r="O3" t="s">
-        <v>218</v>
-      </c>
-      <c r="P3" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="T3" s="27">
-        <f t="shared" ref="T3:T5" si="2">U3+V3+W3+X3</f>
-        <v>1372177</v>
-      </c>
-      <c r="U3" s="27">
-        <v>661775</v>
-      </c>
-      <c r="V3" s="27">
-        <v>424496</v>
-      </c>
-      <c r="W3" s="27">
-        <v>223823</v>
-      </c>
-      <c r="X3" s="27">
-        <v>62083</v>
-      </c>
-      <c r="Y3" s="27">
-        <f>2/(1/Z3+1/AA3)</f>
-        <v>53.83681086604232</v>
-      </c>
-      <c r="Z3" s="27">
-        <f>U3/T3*100</f>
-        <v>48.228107598363771</v>
-      </c>
-      <c r="AA3" s="28">
-        <f t="shared" ref="AA3:AA5" si="3">U3/(U3+V3)*100</f>
-        <v>60.921722111701406</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="29" t="s">
@@ -8028,7 +8182,7 @@
       </c>
       <c r="F4" s="30">
         <f t="shared" si="0"/>
-        <v>1188818</v>
+        <v>1372177</v>
       </c>
       <c r="G4" s="30">
         <v>1079949</v>
@@ -8036,211 +8190,98 @@
       <c r="H4" s="30">
         <v>99717</v>
       </c>
-      <c r="I4" s="30">
-        <v>5014</v>
+      <c r="I4" s="23">
+        <v>188373</v>
       </c>
       <c r="J4" s="30">
         <v>4138</v>
       </c>
       <c r="K4" s="30">
-        <f t="shared" ref="K4:K5" si="4">2/(1/L4+1/M4)</f>
-        <v>91.19326961887856</v>
+        <f t="shared" ref="K4:K5" si="2">2/(1/L4+1/M4)</f>
+        <v>84.640708695636846</v>
       </c>
       <c r="L4" s="30">
-        <f t="shared" ref="L4:L5" si="5">G4/F4*100</f>
-        <v>90.842248350882983</v>
+        <f t="shared" ref="L4:L5" si="3">G4/F4*100</f>
+        <v>78.703330547006686</v>
       </c>
       <c r="M4" s="31">
         <f t="shared" si="1"/>
         <v>91.547014154853997</v>
       </c>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="T4" s="30">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="50">
+        <f t="shared" si="0"/>
+        <v>1372177</v>
+      </c>
+      <c r="G5" s="50">
+        <v>662963</v>
+      </c>
+      <c r="H5" s="50">
+        <v>406568</v>
+      </c>
+      <c r="I5" s="50">
+        <v>302646</v>
+      </c>
+      <c r="J5" s="50">
+        <v>0</v>
+      </c>
+      <c r="K5" s="52">
         <f t="shared" si="2"/>
-        <v>1372177</v>
-      </c>
-      <c r="U4" s="30">
-        <v>1079949</v>
-      </c>
-      <c r="V4" s="30">
-        <v>99717</v>
-      </c>
-      <c r="W4" s="23">
-        <v>188373</v>
-      </c>
-      <c r="X4" s="30">
-        <v>4138</v>
-      </c>
-      <c r="Y4" s="30">
-        <f t="shared" ref="Y4:Y5" si="6">2/(1/Z4+1/AA4)</f>
-        <v>84.640708695636846</v>
-      </c>
-      <c r="Z4" s="30">
-        <f t="shared" ref="Z4:Z5" si="7">U4/T4*100</f>
-        <v>78.703330547006686</v>
-      </c>
-      <c r="AA4" s="31">
+        <v>54.303217256117435</v>
+      </c>
+      <c r="L5" s="52">
         <f t="shared" si="3"/>
-        <v>91.547014154853997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C5" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="F5" s="63">
-        <f t="shared" si="0"/>
-        <v>1188818</v>
-      </c>
-      <c r="G5" s="63">
-        <v>662963</v>
-      </c>
-      <c r="H5" s="63">
-        <v>406568</v>
-      </c>
-      <c r="I5" s="63">
-        <f>302648-183361</f>
-        <v>119287</v>
-      </c>
-      <c r="J5" s="63">
-        <v>0</v>
-      </c>
-      <c r="K5" s="63">
-        <f t="shared" si="4"/>
-        <v>58.712183103674406</v>
-      </c>
-      <c r="L5" s="63">
-        <f t="shared" si="5"/>
-        <v>55.766568137427264</v>
-      </c>
-      <c r="M5" s="64">
+        <v>48.314685350359319</v>
+      </c>
+      <c r="M5" s="53">
         <f t="shared" si="1"/>
         <v>61.986328587016182</v>
       </c>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R5" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="S5" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="T5" s="63">
-        <f t="shared" si="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="55">
+        <f t="shared" ref="F6:F31" si="4">G6+H6+I6+J6</f>
         <v>1372177</v>
       </c>
-      <c r="U5" s="63">
-        <v>662963</v>
-      </c>
-      <c r="V5" s="63">
-        <v>406568</v>
-      </c>
-      <c r="W5" s="63">
-        <v>302646</v>
-      </c>
-      <c r="X5" s="63">
+      <c r="G6" s="55">
+        <v>1081012</v>
+      </c>
+      <c r="H6" s="55">
+        <v>78533</v>
+      </c>
+      <c r="I6" s="55">
+        <v>212632</v>
+      </c>
+      <c r="J6" s="55">
         <v>0</v>
       </c>
-      <c r="Y5" s="65">
-        <f t="shared" si="6"/>
-        <v>54.303217256117435</v>
-      </c>
-      <c r="Z5" s="65">
-        <f t="shared" si="7"/>
-        <v>48.314685350359319</v>
-      </c>
-      <c r="AA5" s="66">
-        <f t="shared" si="3"/>
-        <v>61.986328587016182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" s="68">
-        <f t="shared" ref="F6:F21" si="8">G6+H6+I6+J6</f>
-        <v>1188818</v>
-      </c>
-      <c r="G6" s="68">
-        <v>1081012</v>
-      </c>
-      <c r="H6" s="68">
-        <v>78533</v>
-      </c>
-      <c r="I6" s="68">
-        <f>5275+207359-183361</f>
-        <v>29273</v>
-      </c>
-      <c r="J6" s="68">
-        <v>0</v>
-      </c>
-      <c r="K6" s="68">
-        <f t="shared" ref="K6:K17" si="9">2/(1/L6+1/M6)</f>
-        <v>92.06515347073686</v>
-      </c>
-      <c r="L6" s="68">
-        <f t="shared" ref="L6:L17" si="10">G6/F6*100</f>
-        <v>90.9316648974023</v>
-      </c>
-      <c r="M6" s="69">
-        <f t="shared" ref="M6:M17" si="11">G6/(G6+H6)*100</f>
+      <c r="K6" s="57">
+        <f t="shared" ref="K6:K21" si="5">2/(1/L6+1/M6)</f>
+        <v>85.397369853404129</v>
+      </c>
+      <c r="L6" s="57">
+        <f t="shared" ref="L6:L21" si="6">G6/F6*100</f>
+        <v>78.780798687049852</v>
+      </c>
+      <c r="M6" s="58">
+        <f t="shared" ref="M6:M34" si="7">G6/(G6+H6)*100</f>
         <v>93.227257243142788</v>
       </c>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="T6" s="68">
-        <f t="shared" ref="T6:T31" si="12">U6+V6+W6+X6</f>
-        <v>1372177</v>
-      </c>
-      <c r="U6" s="68">
-        <v>1081012</v>
-      </c>
-      <c r="V6" s="68">
-        <v>78533</v>
-      </c>
-      <c r="W6" s="68">
-        <v>212632</v>
-      </c>
-      <c r="X6" s="68">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="70">
-        <f t="shared" ref="Y6:Y21" si="13">2/(1/Z6+1/AA6)</f>
-        <v>85.397369853404129</v>
-      </c>
-      <c r="Z6" s="70">
-        <f t="shared" ref="Z6:Z21" si="14">U6/T6*100</f>
-        <v>78.780798687049852</v>
-      </c>
-      <c r="AA6" s="71">
-        <f t="shared" ref="AA6:AA34" si="15">U6/(U6+V6)*100</f>
-        <v>93.227257243142788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C7" s="23" t="s">
         <v>137</v>
       </c>
@@ -8249,7 +8290,7 @@
         <v>177</v>
       </c>
       <c r="F7" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1372177</v>
       </c>
       <c r="G7" s="23">
@@ -8265,64 +8306,26 @@
         <v>63750</v>
       </c>
       <c r="K7" s="23">
-        <f t="shared" ref="K7:K8" si="16">2/(1/L7+1/M7)</f>
+        <f t="shared" si="5"/>
         <v>52.017840545548097</v>
       </c>
       <c r="L7" s="23">
-        <f t="shared" ref="L7:L8" si="17">G7/F7*100</f>
+        <f t="shared" si="6"/>
         <v>46.598580212319547</v>
       </c>
       <c r="M7" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>58.86346647420342</v>
       </c>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="T7" s="23">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U7" s="23">
-        <v>639415</v>
-      </c>
-      <c r="V7" s="23">
-        <v>446853</v>
-      </c>
-      <c r="W7" s="23">
-        <v>222159</v>
-      </c>
-      <c r="X7" s="23">
-        <v>63750</v>
-      </c>
-      <c r="Y7" s="23">
-        <f t="shared" si="13"/>
-        <v>52.017840545548097</v>
-      </c>
-      <c r="Z7" s="23">
-        <f t="shared" si="14"/>
-        <v>46.598580212319547</v>
-      </c>
-      <c r="AA7" s="33">
-        <f t="shared" si="15"/>
-        <v>58.86346647420342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
       <c r="E8" s="32" t="s">
         <v>178</v>
       </c>
       <c r="F8" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1372177</v>
       </c>
       <c r="G8" s="23">
@@ -8338,201 +8341,88 @@
         <v>4079</v>
       </c>
       <c r="K8" s="23">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>83.604066085648014</v>
       </c>
       <c r="L8" s="23">
-        <f t="shared" si="17"/>
+        <f t="shared" si="6"/>
         <v>77.739314971756556</v>
       </c>
       <c r="M8" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>90.425909772536727</v>
       </c>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="32" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="50">
+        <f t="shared" si="4"/>
+        <v>1372177</v>
+      </c>
+      <c r="G9" s="50">
+        <v>211120</v>
+      </c>
+      <c r="H9" s="50">
+        <v>984044</v>
+      </c>
+      <c r="I9" s="50">
+        <v>177013</v>
+      </c>
+      <c r="J9" s="50">
+        <v>0</v>
+      </c>
+      <c r="K9" s="50">
+        <f t="shared" si="5"/>
+        <v>16.446588123665691</v>
+      </c>
+      <c r="L9" s="50">
+        <f t="shared" si="6"/>
+        <v>15.385770203115195</v>
+      </c>
+      <c r="M9" s="51">
+        <f t="shared" si="7"/>
+        <v>17.664521354391532</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="T8" s="23">
-        <f t="shared" si="12"/>
+      <c r="F10" s="55">
+        <f t="shared" si="4"/>
         <v>1372177</v>
       </c>
-      <c r="U8" s="23">
-        <v>1066721</v>
-      </c>
-      <c r="V8" s="23">
-        <v>112942</v>
-      </c>
-      <c r="W8" s="23">
-        <v>188435</v>
-      </c>
-      <c r="X8" s="23">
-        <v>4079</v>
-      </c>
-      <c r="Y8" s="23">
-        <f t="shared" si="13"/>
-        <v>83.604066085648014</v>
-      </c>
-      <c r="Z8" s="23">
-        <f t="shared" si="14"/>
-        <v>77.739314971756556</v>
-      </c>
-      <c r="AA8" s="33">
-        <f t="shared" si="15"/>
-        <v>90.425909772536727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C9" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="63">
-        <f t="shared" si="8"/>
-        <v>1372179</v>
-      </c>
-      <c r="G9" s="63">
-        <v>211122</v>
-      </c>
-      <c r="H9" s="63">
-        <v>984044</v>
-      </c>
-      <c r="I9" s="63">
+      <c r="G10" s="55">
+        <v>1021363</v>
+      </c>
+      <c r="H10" s="55">
+        <v>173801</v>
+      </c>
+      <c r="I10" s="55">
         <v>177013</v>
       </c>
-      <c r="J9" s="63">
+      <c r="J10" s="55">
         <v>0</v>
       </c>
-      <c r="K9" s="63">
-        <f t="shared" si="9"/>
-        <v>16.446718302370737</v>
-      </c>
-      <c r="L9" s="63">
-        <f t="shared" si="10"/>
-        <v>15.385893531383296</v>
-      </c>
-      <c r="M9" s="64">
-        <f t="shared" si="11"/>
-        <v>17.664659135216361</v>
-      </c>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="R9" s="61"/>
-      <c r="S9" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="T9" s="63">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U9" s="63">
-        <v>211120</v>
-      </c>
-      <c r="V9" s="63">
-        <v>984044</v>
-      </c>
-      <c r="W9" s="63">
-        <v>177013</v>
-      </c>
-      <c r="X9" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="63">
-        <f t="shared" si="13"/>
-        <v>16.446588123665691</v>
-      </c>
-      <c r="Z9" s="63">
-        <f t="shared" si="14"/>
-        <v>15.385770203115195</v>
-      </c>
-      <c r="AA9" s="64">
-        <f t="shared" si="15"/>
-        <v>17.664521354391532</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="F10" s="68">
-        <f t="shared" si="8"/>
-        <v>1372179</v>
-      </c>
-      <c r="G10" s="68">
-        <v>1021365</v>
-      </c>
-      <c r="H10" s="68">
-        <v>173801</v>
-      </c>
-      <c r="I10" s="68">
-        <v>177013</v>
-      </c>
-      <c r="J10" s="68">
-        <v>0</v>
-      </c>
-      <c r="K10" s="68">
-        <f t="shared" si="9"/>
-        <v>79.565854998062207</v>
-      </c>
-      <c r="L10" s="68">
-        <f t="shared" si="10"/>
-        <v>74.433802003965951</v>
-      </c>
-      <c r="M10" s="69">
-        <f t="shared" si="11"/>
-        <v>85.458003323387715</v>
-      </c>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="T10" s="68">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U10" s="68">
-        <v>1021363</v>
-      </c>
-      <c r="V10" s="68">
-        <v>173801</v>
-      </c>
-      <c r="W10" s="68">
-        <v>177013</v>
-      </c>
-      <c r="X10" s="68">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="68">
-        <f t="shared" si="13"/>
+      <c r="K10" s="55">
+        <f t="shared" si="5"/>
         <v>79.565823161005881</v>
       </c>
-      <c r="Z10" s="68">
-        <f t="shared" si="14"/>
+      <c r="L10" s="55">
+        <f t="shared" si="6"/>
         <v>74.433764740263101</v>
       </c>
-      <c r="AA10" s="69">
-        <f t="shared" si="15"/>
+      <c r="M10" s="56">
+        <f t="shared" si="7"/>
         <v>85.457978988657629</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C11" s="23" t="s">
         <v>224</v>
       </c>
@@ -8541,7 +8431,7 @@
         <v>177</v>
       </c>
       <c r="F11" s="23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1372177</v>
       </c>
       <c r="G11" s="23">
@@ -8557,64 +8447,26 @@
         <v>62525</v>
       </c>
       <c r="K11" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>49.781024167385524</v>
       </c>
       <c r="L11" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>43.170815426872771</v>
       </c>
       <c r="M11" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>58.781502848875633</v>
       </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="R11" s="23"/>
-      <c r="S11" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="T11" s="23">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U11" s="23">
-        <v>592380</v>
-      </c>
-      <c r="V11" s="23">
-        <v>415386</v>
-      </c>
-      <c r="W11" s="23">
-        <v>301886</v>
-      </c>
-      <c r="X11" s="23">
-        <v>62525</v>
-      </c>
-      <c r="Y11" s="23">
-        <f t="shared" si="13"/>
-        <v>49.781024167385524</v>
-      </c>
-      <c r="Z11" s="23">
-        <f t="shared" si="14"/>
-        <v>43.170815426872771</v>
-      </c>
-      <c r="AA11" s="33">
-        <f t="shared" si="15"/>
-        <v>58.781502848875633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
       <c r="E12" s="34" t="s">
         <v>178</v>
       </c>
       <c r="F12" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1372177</v>
       </c>
       <c r="G12" s="35">
@@ -8630,281 +8482,127 @@
         <v>5787</v>
       </c>
       <c r="K12" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>73.371758652516306</v>
       </c>
       <c r="L12" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>65.66762159692226</v>
       </c>
       <c r="M12" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>83.123865330401031</v>
       </c>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="T12" s="35">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U12" s="35">
-        <v>901076</v>
-      </c>
-      <c r="V12" s="35">
-        <v>182940</v>
-      </c>
-      <c r="W12" s="35">
-        <v>282374</v>
-      </c>
-      <c r="X12" s="35">
-        <v>5787</v>
-      </c>
-      <c r="Y12" s="35">
-        <f t="shared" si="13"/>
-        <v>73.371758652516306</v>
-      </c>
-      <c r="Z12" s="35">
-        <f t="shared" si="14"/>
-        <v>65.66762159692226</v>
-      </c>
-      <c r="AA12" s="36">
-        <f t="shared" si="15"/>
-        <v>83.123865330401031</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="61">
-        <f t="shared" si="8"/>
-        <v>1327874</v>
-      </c>
-      <c r="G13" s="61">
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>1372177</v>
+      </c>
+      <c r="G13">
         <v>1317719</v>
       </c>
-      <c r="H13" s="61">
+      <c r="H13">
         <v>10031</v>
       </c>
-      <c r="I13" s="61">
-        <v>124</v>
-      </c>
-      <c r="J13" s="61">
+      <c r="I13">
+        <v>44427</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" s="61">
-        <f t="shared" si="9"/>
-        <v>99.239877332031938</v>
-      </c>
-      <c r="L13" s="61">
-        <f t="shared" si="10"/>
-        <v>99.235243705351564</v>
-      </c>
-      <c r="M13" s="73">
-        <f t="shared" si="11"/>
+      <c r="K13" s="63">
+        <f t="shared" si="5"/>
+        <v>97.611453939310209</v>
+      </c>
+      <c r="L13" s="63">
+        <f t="shared" si="6"/>
+        <v>96.031270018372254</v>
+      </c>
+      <c r="M13" s="64">
+        <f t="shared" si="7"/>
         <v>99.244511391451709</v>
       </c>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q13" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="R13" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="S13" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="T13" s="61">
-        <f t="shared" si="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
         <v>1372177</v>
       </c>
-      <c r="U13" s="61">
-        <v>1317719</v>
-      </c>
-      <c r="V13" s="61">
-        <v>10031</v>
-      </c>
-      <c r="W13" s="61">
-        <v>44427</v>
-      </c>
-      <c r="X13" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="77">
-        <f t="shared" si="13"/>
-        <v>97.611453939310209</v>
-      </c>
-      <c r="Z13" s="77">
-        <f t="shared" si="14"/>
-        <v>96.031270018372254</v>
-      </c>
-      <c r="AA13" s="78">
-        <f t="shared" si="15"/>
-        <v>99.244511391451709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="F14" s="61">
-        <f t="shared" si="8"/>
-        <v>1327874</v>
-      </c>
-      <c r="G14" s="61">
+      <c r="G14">
         <v>1197344</v>
       </c>
-      <c r="H14" s="61">
+      <c r="H14">
         <v>6330</v>
       </c>
-      <c r="I14" s="61">
-        <v>1890</v>
-      </c>
-      <c r="J14" s="61">
+      <c r="I14">
+        <v>46193</v>
+      </c>
+      <c r="J14">
         <v>122310</v>
       </c>
-      <c r="K14" s="61">
-        <f t="shared" si="9"/>
-        <v>94.593821645886237</v>
-      </c>
-      <c r="L14" s="61">
-        <f t="shared" si="10"/>
-        <v>90.170001069378571</v>
-      </c>
-      <c r="M14" s="73">
-        <f t="shared" si="11"/>
+      <c r="K14" s="63">
+        <f t="shared" si="5"/>
+        <v>92.966868037009903</v>
+      </c>
+      <c r="L14" s="63">
+        <f t="shared" si="6"/>
+        <v>87.258713708216945</v>
+      </c>
+      <c r="M14" s="64">
+        <f t="shared" si="7"/>
         <v>99.474110099578468</v>
       </c>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="T14" s="61">
-        <f t="shared" si="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F15" s="55">
+        <f t="shared" si="4"/>
         <v>1372177</v>
       </c>
-      <c r="U14" s="61">
-        <v>1197344</v>
-      </c>
-      <c r="V14" s="61">
-        <v>6330</v>
-      </c>
-      <c r="W14" s="61">
-        <v>46193</v>
-      </c>
-      <c r="X14" s="61">
-        <v>122310</v>
-      </c>
-      <c r="Y14" s="77">
-        <f t="shared" si="13"/>
-        <v>92.966868037009903</v>
-      </c>
-      <c r="Z14" s="77">
-        <f t="shared" si="14"/>
-        <v>87.258713708216945</v>
-      </c>
-      <c r="AA14" s="78">
-        <f t="shared" si="15"/>
-        <v>99.474110099578468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="F15" s="68">
-        <f t="shared" si="8"/>
-        <v>1327874</v>
-      </c>
-      <c r="G15" s="68">
+      <c r="G15" s="55">
         <v>1310141</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="55">
         <v>6450</v>
       </c>
-      <c r="I15" s="68">
-        <v>1448</v>
-      </c>
-      <c r="J15" s="68">
+      <c r="I15" s="55">
+        <v>45751</v>
+      </c>
+      <c r="J15" s="55">
         <v>9835</v>
       </c>
-      <c r="K15" s="68">
-        <f t="shared" si="9"/>
-        <v>99.085523915045201</v>
-      </c>
-      <c r="L15" s="68">
-        <f t="shared" si="10"/>
-        <v>98.664557028754231</v>
-      </c>
-      <c r="M15" s="69">
-        <f t="shared" si="11"/>
+      <c r="K15" s="57">
+        <f t="shared" si="5"/>
+        <v>97.452885485099486</v>
+      </c>
+      <c r="L15" s="57">
+        <f t="shared" si="6"/>
+        <v>95.479008903370328</v>
+      </c>
+      <c r="M15" s="58">
+        <f t="shared" si="7"/>
         <v>99.510098428441324</v>
       </c>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="T15" s="68">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U15" s="68">
-        <v>1310141</v>
-      </c>
-      <c r="V15" s="68">
-        <v>6450</v>
-      </c>
-      <c r="W15" s="68">
-        <v>45751</v>
-      </c>
-      <c r="X15" s="68">
-        <v>9835</v>
-      </c>
-      <c r="Y15" s="70">
-        <f t="shared" si="13"/>
-        <v>97.452885485099486</v>
-      </c>
-      <c r="Z15" s="70">
-        <f t="shared" si="14"/>
-        <v>95.479008903370328</v>
-      </c>
-      <c r="AA15" s="71">
-        <f t="shared" si="15"/>
-        <v>99.510098428441324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C16" s="23" t="s">
         <v>1</v>
       </c>
@@ -8915,8 +8613,8 @@
         <v>180</v>
       </c>
       <c r="F16" s="23">
-        <f t="shared" si="8"/>
-        <v>1327874</v>
+        <f t="shared" si="4"/>
+        <v>1372177</v>
       </c>
       <c r="G16" s="23">
         <v>1296590</v>
@@ -8925,74 +8623,33 @@
         <v>29533</v>
       </c>
       <c r="I16" s="23">
-        <f>46056-44305</f>
-        <v>1751</v>
+        <v>46054</v>
       </c>
       <c r="J16" s="23">
         <v>0</v>
       </c>
       <c r="K16" s="23">
-        <f t="shared" si="9"/>
-        <v>97.70847517913549</v>
+        <f t="shared" si="5"/>
+        <v>96.104213764221939</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" si="10"/>
-        <v>97.644053577372546</v>
+        <f t="shared" si="6"/>
+        <v>94.491454090835219</v>
       </c>
       <c r="M16" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>97.772981842559105</v>
       </c>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="S16" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="T16" s="23">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U16" s="23">
-        <v>1296590</v>
-      </c>
-      <c r="V16" s="23">
-        <v>29533</v>
-      </c>
-      <c r="W16" s="23">
-        <v>46054</v>
-      </c>
-      <c r="X16" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="23">
-        <f t="shared" si="13"/>
-        <v>96.104213764221939</v>
-      </c>
-      <c r="Z16" s="23">
-        <f t="shared" si="14"/>
-        <v>94.491454090835219</v>
-      </c>
-      <c r="AA16" s="33">
-        <f t="shared" si="15"/>
-        <v>97.772981842559105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="32" t="s">
         <v>177</v>
       </c>
       <c r="F17" s="23">
-        <f t="shared" si="8"/>
-        <v>1327874</v>
+        <f t="shared" si="4"/>
+        <v>1372177</v>
       </c>
       <c r="G17" s="23">
         <v>1176566</v>
@@ -9001,70 +8658,33 @@
         <v>25452</v>
       </c>
       <c r="I17" s="23">
-        <f>170161-44305</f>
-        <v>125856</v>
+        <v>170159</v>
       </c>
       <c r="J17" s="23">
         <v>0</v>
       </c>
       <c r="K17" s="23">
-        <f t="shared" si="9"/>
-        <v>93.013140481886182</v>
+        <f t="shared" si="5"/>
+        <v>91.412344441660423</v>
       </c>
       <c r="L17" s="23">
-        <f t="shared" si="10"/>
-        <v>88.605244172263326</v>
+        <f t="shared" si="6"/>
+        <v>85.744477571042225</v>
       </c>
       <c r="M17" s="33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>97.882560826876144</v>
       </c>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="T17" s="23">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U17" s="23">
-        <v>1176566</v>
-      </c>
-      <c r="V17" s="23">
-        <v>25452</v>
-      </c>
-      <c r="W17" s="23">
-        <v>170159</v>
-      </c>
-      <c r="X17" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="23">
-        <f t="shared" si="13"/>
-        <v>91.412344441660423</v>
-      </c>
-      <c r="Z17" s="23">
-        <f t="shared" si="14"/>
-        <v>85.744477571042225</v>
-      </c>
-      <c r="AA17" s="33">
-        <f t="shared" si="15"/>
-        <v>97.882560826876144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="29" t="s">
         <v>178</v>
       </c>
       <c r="F18" s="30">
-        <f t="shared" ref="F18" si="18">G18+H18+I18+J18</f>
-        <v>1327874</v>
+        <f t="shared" si="4"/>
+        <v>1372177</v>
       </c>
       <c r="G18" s="30">
         <v>1308227</v>
@@ -9073,279 +8693,127 @@
         <v>6656</v>
       </c>
       <c r="I18" s="30">
-        <f>57296-44305</f>
-        <v>12991</v>
+        <v>57294</v>
       </c>
       <c r="J18" s="30">
         <v>0</v>
       </c>
       <c r="K18" s="30">
-        <f t="shared" ref="K18:K26" si="19">2/(1/L18+1/M18)</f>
-        <v>99.004713638068125</v>
+        <f t="shared" si="5"/>
+        <v>97.372369801939655</v>
       </c>
       <c r="L18" s="30">
-        <f t="shared" ref="L18:L26" si="20">G18/F18*100</f>
-        <v>98.520416846779142</v>
+        <f t="shared" si="6"/>
+        <v>95.339522525155289</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" ref="M18:M21" si="21">G18/(G18+H18)*100</f>
+        <f t="shared" si="7"/>
         <v>99.493795265434258</v>
       </c>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="29" t="s">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>1372177</v>
+      </c>
+      <c r="G19">
+        <v>1279211</v>
+      </c>
+      <c r="H19">
+        <v>48536</v>
+      </c>
+      <c r="I19">
+        <v>44430</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>94.759037661800846</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>93.224926521869989</v>
+      </c>
+      <c r="M19" s="59">
+        <f t="shared" si="7"/>
+        <v>96.344484303108942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>1372177</v>
+      </c>
+      <c r="G20">
+        <v>1161096</v>
+      </c>
+      <c r="H20">
+        <v>42575</v>
+      </c>
+      <c r="I20">
+        <v>47800</v>
+      </c>
+      <c r="J20">
+        <v>120706</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>90.152524527844804</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>84.617071995813959</v>
+      </c>
+      <c r="M20" s="59">
+        <f t="shared" si="7"/>
+        <v>96.462903899819793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="T18" s="30">
-        <f t="shared" si="12"/>
+      <c r="F21" s="55">
+        <f t="shared" si="4"/>
         <v>1372177</v>
       </c>
-      <c r="U18" s="30">
-        <v>1308227</v>
-      </c>
-      <c r="V18" s="30">
-        <v>6656</v>
-      </c>
-      <c r="W18" s="30">
-        <v>57294</v>
-      </c>
-      <c r="X18" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="30">
-        <f t="shared" si="13"/>
-        <v>97.372369801939655</v>
-      </c>
-      <c r="Z18" s="30">
-        <f t="shared" si="14"/>
-        <v>95.339522525155289</v>
-      </c>
-      <c r="AA18" s="31">
-        <f t="shared" si="15"/>
-        <v>99.493795265434258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C19" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="F19" s="61">
-        <f t="shared" si="8"/>
-        <v>1372177</v>
-      </c>
-      <c r="G19" s="60">
-        <v>1279211</v>
-      </c>
-      <c r="H19" s="60">
-        <v>48536</v>
-      </c>
-      <c r="I19" s="60">
-        <v>44430</v>
-      </c>
-      <c r="J19" s="60">
-        <v>0</v>
-      </c>
-      <c r="K19" s="61">
-        <f t="shared" si="19"/>
-        <v>94.759037661800846</v>
-      </c>
-      <c r="L19" s="61">
-        <f t="shared" si="20"/>
-        <v>93.224926521869989</v>
-      </c>
-      <c r="M19" s="73">
-        <f t="shared" si="21"/>
-        <v>96.344484303108942</v>
-      </c>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="R19" s="61"/>
-      <c r="S19" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="T19" s="61">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U19" s="60">
-        <v>1279211</v>
-      </c>
-      <c r="V19" s="60">
-        <v>48536</v>
-      </c>
-      <c r="W19" s="60">
-        <v>44430</v>
-      </c>
-      <c r="X19" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="61">
-        <f t="shared" si="13"/>
-        <v>94.759037661800846</v>
-      </c>
-      <c r="Z19" s="61">
-        <f t="shared" si="14"/>
-        <v>93.224926521869989</v>
-      </c>
-      <c r="AA19" s="73">
-        <f t="shared" si="15"/>
-        <v>96.344484303108942</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="61">
-        <f t="shared" si="8"/>
-        <v>1372177</v>
-      </c>
-      <c r="G20" s="60">
-        <v>1161096</v>
-      </c>
-      <c r="H20" s="60">
-        <v>42575</v>
-      </c>
-      <c r="I20" s="60">
-        <v>47800</v>
-      </c>
-      <c r="J20" s="60">
-        <v>120706</v>
-      </c>
-      <c r="K20" s="61">
-        <f t="shared" si="19"/>
-        <v>90.152524527844804</v>
-      </c>
-      <c r="L20" s="61">
-        <f t="shared" si="20"/>
-        <v>84.617071995813959</v>
-      </c>
-      <c r="M20" s="73">
-        <f t="shared" si="21"/>
-        <v>96.462903899819793</v>
-      </c>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="T20" s="61">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U20" s="60">
-        <v>1161096</v>
-      </c>
-      <c r="V20" s="60">
-        <v>42575</v>
-      </c>
-      <c r="W20" s="60">
-        <v>47800</v>
-      </c>
-      <c r="X20" s="60">
-        <v>120706</v>
-      </c>
-      <c r="Y20" s="61">
-        <f t="shared" si="13"/>
-        <v>90.152524527844804</v>
-      </c>
-      <c r="Z20" s="61">
-        <f t="shared" si="14"/>
-        <v>84.617071995813959</v>
-      </c>
-      <c r="AA20" s="73">
-        <f t="shared" si="15"/>
-        <v>96.462903899819793</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" s="61">
-        <f t="shared" si="8"/>
-        <v>1372177</v>
-      </c>
-      <c r="G21" s="60">
+      <c r="G21" s="55">
         <v>1309696</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="55">
         <v>6892</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="55">
         <v>45766</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="55">
         <v>9823</v>
       </c>
-      <c r="K21" s="61">
-        <f t="shared" si="19"/>
+      <c r="K21" s="55">
+        <f t="shared" si="5"/>
         <v>97.419893519887381</v>
       </c>
-      <c r="L21" s="61">
-        <f t="shared" si="20"/>
+      <c r="L21" s="55">
+        <f t="shared" si="6"/>
         <v>95.446578684819812</v>
       </c>
-      <c r="M21" s="73">
-        <f t="shared" si="21"/>
+      <c r="M21" s="56">
+        <f t="shared" si="7"/>
         <v>99.47652568609162</v>
       </c>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="T21" s="68">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U21" s="68">
-        <v>1309696</v>
-      </c>
-      <c r="V21" s="68">
-        <v>6892</v>
-      </c>
-      <c r="W21" s="68">
-        <v>45766</v>
-      </c>
-      <c r="X21" s="68">
-        <v>9823</v>
-      </c>
-      <c r="Y21" s="68">
-        <f t="shared" si="13"/>
-        <v>97.419893519887381</v>
-      </c>
-      <c r="Z21" s="68">
-        <f t="shared" si="14"/>
-        <v>95.446578684819812</v>
-      </c>
-      <c r="AA21" s="69">
-        <f t="shared" si="15"/>
-        <v>99.47652568609162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C22" s="23" t="s">
         <v>212</v>
       </c>
@@ -9354,7 +8822,7 @@
         <v>177</v>
       </c>
       <c r="F22" s="23">
-        <f t="shared" ref="F22:F31" si="22">G22+H22+I22+J22</f>
+        <f t="shared" si="4"/>
         <v>1372177</v>
       </c>
       <c r="G22" s="23">
@@ -9370,64 +8838,26 @@
         <v>0</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="K22:K26" si="8">2/(1/L22+1/M22)</f>
         <v>0.27761191954661357</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="L22:L26" si="9">G22/F22*100</f>
         <v>0.26191956285522933</v>
       </c>
       <c r="M22" s="33">
-        <f t="shared" ref="M22:M34" si="23">G22/(G22+H22)*100</f>
+        <f t="shared" si="7"/>
         <v>0.29530446185815035</v>
       </c>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="R22" s="23"/>
-      <c r="S22" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="T22" s="23">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U22" s="23">
-        <v>3594</v>
-      </c>
-      <c r="V22" s="23">
-        <v>1213455</v>
-      </c>
-      <c r="W22" s="79">
-        <v>155128</v>
-      </c>
-      <c r="X22" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="23">
-        <f t="shared" ref="Y22:Y26" si="24">2/(1/Z22+1/AA22)</f>
-        <v>0.27761191954661357</v>
-      </c>
-      <c r="Z22" s="23">
-        <f t="shared" ref="Z22:Z26" si="25">U22/T22*100</f>
-        <v>0.26191956285522933</v>
-      </c>
-      <c r="AA22" s="33">
-        <f t="shared" si="15"/>
-        <v>0.29530446185815035</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="29" t="s">
         <v>178</v>
       </c>
       <c r="F23" s="30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="4"/>
         <v>1372177</v>
       </c>
       <c r="G23" s="30">
@@ -9443,272 +8873,121 @@
         <v>0</v>
       </c>
       <c r="K23" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="8"/>
         <v>88.824227780811725</v>
       </c>
       <c r="L23" s="30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="9"/>
         <v>83.803328579330511</v>
       </c>
       <c r="M23" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>94.485102900540568</v>
       </c>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="29" t="s">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>1372177</v>
+      </c>
+      <c r="G24">
+        <v>1125648</v>
+      </c>
+      <c r="H24">
+        <v>75001</v>
+      </c>
+      <c r="I24">
+        <v>171528</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="8"/>
+        <v>87.502847063890044</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="9"/>
+        <v>82.033731799906278</v>
+      </c>
+      <c r="M24" s="59">
+        <f t="shared" si="7"/>
+        <v>93.753295092903926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>1372177</v>
+      </c>
+      <c r="G25">
+        <v>1037975</v>
+      </c>
+      <c r="H25">
+        <v>49682</v>
+      </c>
+      <c r="I25">
+        <v>191712</v>
+      </c>
+      <c r="J25">
+        <v>92808</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="8"/>
+        <v>84.393906255462767</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="9"/>
+        <v>75.644395730288437</v>
+      </c>
+      <c r="M25" s="59">
+        <f t="shared" si="7"/>
+        <v>95.432199673242579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="T23" s="30">
-        <f t="shared" si="12"/>
+      <c r="F26" s="61">
+        <f t="shared" si="4"/>
         <v>1372177</v>
       </c>
-      <c r="U23" s="30">
-        <v>1149930</v>
-      </c>
-      <c r="V23" s="30">
-        <v>67119</v>
-      </c>
-      <c r="W23" s="30">
-        <v>155128</v>
-      </c>
-      <c r="X23" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="30">
-        <f t="shared" si="24"/>
-        <v>88.824227780811725</v>
-      </c>
-      <c r="Z23" s="30">
-        <f t="shared" si="25"/>
-        <v>83.803328579330511</v>
-      </c>
-      <c r="AA23" s="31">
-        <f t="shared" si="15"/>
-        <v>94.485102900540568</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C24" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="F24" s="61">
-        <f t="shared" si="22"/>
-        <v>1372177</v>
-      </c>
-      <c r="G24" s="61">
-        <v>1125648</v>
-      </c>
-      <c r="H24" s="61">
-        <v>75001</v>
-      </c>
-      <c r="I24" s="61">
-        <v>171528</v>
-      </c>
-      <c r="J24" s="61">
-        <v>0</v>
-      </c>
-      <c r="K24" s="61">
-        <f t="shared" si="19"/>
-        <v>87.502847063890044</v>
-      </c>
-      <c r="L24" s="61">
-        <f t="shared" si="20"/>
-        <v>82.033731799906278</v>
-      </c>
-      <c r="M24" s="73">
-        <f t="shared" si="23"/>
-        <v>93.753295092903926</v>
-      </c>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="R24" s="61"/>
-      <c r="S24" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="T24" s="61">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U24" s="61">
-        <v>1125648</v>
-      </c>
-      <c r="V24" s="61">
-        <v>75001</v>
-      </c>
-      <c r="W24" s="61">
-        <v>171528</v>
-      </c>
-      <c r="X24" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="61">
-        <f t="shared" si="24"/>
-        <v>87.502847063890044</v>
-      </c>
-      <c r="Z24" s="61">
-        <f t="shared" si="25"/>
-        <v>82.033731799906278</v>
-      </c>
-      <c r="AA24" s="73">
-        <f t="shared" si="15"/>
-        <v>93.753295092903926</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="F25" s="61">
-        <f t="shared" si="22"/>
-        <v>1372177</v>
-      </c>
-      <c r="G25" s="61">
-        <v>1037975</v>
-      </c>
-      <c r="H25" s="61">
-        <v>49682</v>
-      </c>
-      <c r="I25" s="61">
-        <v>191712</v>
-      </c>
-      <c r="J25" s="61">
-        <v>92808</v>
-      </c>
-      <c r="K25" s="61">
-        <f t="shared" si="19"/>
-        <v>84.393906255462767</v>
-      </c>
-      <c r="L25" s="61">
-        <f t="shared" si="20"/>
-        <v>75.644395730288437</v>
-      </c>
-      <c r="M25" s="73">
-        <f t="shared" si="23"/>
-        <v>95.432199673242579</v>
-      </c>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="T25" s="61">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U25" s="61">
-        <v>1037975</v>
-      </c>
-      <c r="V25" s="61">
-        <v>49682</v>
-      </c>
-      <c r="W25" s="61">
-        <v>191712</v>
-      </c>
-      <c r="X25" s="61">
-        <v>92808</v>
-      </c>
-      <c r="Y25" s="61">
-        <f t="shared" si="24"/>
-        <v>84.393906255462767</v>
-      </c>
-      <c r="Z25" s="61">
-        <f t="shared" si="25"/>
-        <v>75.644395730288437</v>
-      </c>
-      <c r="AA25" s="73">
-        <f t="shared" si="15"/>
-        <v>95.432199673242579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="61"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="75">
-        <f t="shared" si="22"/>
-        <v>1372177</v>
-      </c>
-      <c r="G26" s="75">
+      <c r="G26" s="61">
         <v>1147925</v>
       </c>
-      <c r="H26" s="75">
+      <c r="H26" s="61">
         <v>33034</v>
       </c>
-      <c r="I26" s="75">
+      <c r="I26" s="61">
         <v>181760</v>
       </c>
-      <c r="J26" s="75">
+      <c r="J26" s="61">
         <v>9458</v>
       </c>
-      <c r="K26" s="75">
-        <f t="shared" si="19"/>
+      <c r="K26" s="61">
+        <f t="shared" si="8"/>
         <v>89.922745987679463</v>
       </c>
-      <c r="L26" s="75">
-        <f t="shared" si="20"/>
+      <c r="L26" s="61">
+        <f t="shared" si="9"/>
         <v>83.657210403614116</v>
       </c>
-      <c r="M26" s="76">
-        <f t="shared" si="23"/>
+      <c r="M26" s="62">
+        <f t="shared" si="7"/>
         <v>97.202781806989066</v>
       </c>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="T26" s="75">
-        <f t="shared" si="12"/>
-        <v>1372177</v>
-      </c>
-      <c r="U26" s="75">
-        <v>1147925</v>
-      </c>
-      <c r="V26" s="75">
-        <v>33034</v>
-      </c>
-      <c r="W26" s="75">
-        <v>181760</v>
-      </c>
-      <c r="X26" s="75">
-        <v>9458</v>
-      </c>
-      <c r="Y26" s="75">
-        <f t="shared" si="24"/>
-        <v>89.922745987679463</v>
-      </c>
-      <c r="Z26" s="75">
-        <f t="shared" si="25"/>
-        <v>83.657210403614116</v>
-      </c>
-      <c r="AA26" s="76">
-        <f t="shared" si="15"/>
-        <v>97.202781806989066</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>219</v>
       </c>
@@ -9725,8 +9004,8 @@
         <v>177</v>
       </c>
       <c r="F27" s="23">
-        <f t="shared" si="22"/>
-        <v>10816444</v>
+        <f t="shared" si="4"/>
+        <v>26665697</v>
       </c>
       <c r="G27" s="23">
         <v>6426863</v>
@@ -9735,77 +9014,33 @@
         <v>3914307</v>
       </c>
       <c r="I27" s="23">
-        <v>145745</v>
+        <v>15994998</v>
       </c>
       <c r="J27" s="23">
         <v>329529</v>
       </c>
       <c r="K27" s="23">
-        <f t="shared" ref="K27:K34" si="26">2/(1/L27+1/M27)</f>
-        <v>60.752247394247767</v>
+        <f t="shared" ref="K27:K34" si="10">2/(1/L27+1/M27)</f>
+        <v>34.733353677305345</v>
       </c>
       <c r="L27" s="23">
-        <f t="shared" ref="L27:L34" si="27">G27/F27*100</f>
-        <v>59.417522061779273</v>
+        <f t="shared" ref="L27:L34" si="11">G27/F27*100</f>
+        <v>24.101612644889801</v>
       </c>
       <c r="M27" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>62.148315906227246</v>
       </c>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="P27" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q27" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="R27" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="T27" s="23">
-        <f t="shared" si="12"/>
-        <v>26665697</v>
-      </c>
-      <c r="U27" s="23">
-        <v>6426863</v>
-      </c>
-      <c r="V27" s="23">
-        <v>3914307</v>
-      </c>
-      <c r="W27" s="23">
-        <v>15994998</v>
-      </c>
-      <c r="X27" s="23">
-        <v>329529</v>
-      </c>
-      <c r="Y27" s="23">
-        <f t="shared" ref="Y27:Y34" si="28">2/(1/Z27+1/AA27)</f>
-        <v>34.733353677305345</v>
-      </c>
-      <c r="Z27" s="23">
-        <f t="shared" ref="Z27:Z34" si="29">U27/T27*100</f>
-        <v>24.101612644889801</v>
-      </c>
-      <c r="AA27" s="33">
-        <f t="shared" si="15"/>
-        <v>62.148315906227246</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
       <c r="E28" s="29" t="s">
         <v>178</v>
       </c>
       <c r="F28" s="30">
-        <f t="shared" si="22"/>
-        <v>10816444</v>
+        <f t="shared" si="4"/>
+        <v>26665697</v>
       </c>
       <c r="G28" s="30">
         <v>10201194</v>
@@ -9814,211 +9049,97 @@
         <v>611403</v>
       </c>
       <c r="I28" s="30">
-        <v>43</v>
+        <v>15849296</v>
       </c>
       <c r="J28" s="30">
         <v>3804</v>
       </c>
       <c r="K28" s="30">
-        <f t="shared" si="26"/>
-        <v>94.328675968573933</v>
+        <f t="shared" si="10"/>
+        <v>54.437878095518435</v>
       </c>
       <c r="L28" s="30">
-        <f t="shared" si="27"/>
-        <v>94.31190139753879</v>
+        <f t="shared" si="11"/>
+        <v>38.255868579021204</v>
       </c>
       <c r="M28" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>94.345456507812145</v>
       </c>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="29" t="s">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="F29" s="50">
+        <f t="shared" si="4"/>
+        <v>26665697</v>
+      </c>
+      <c r="G29" s="50">
+        <v>6586078</v>
+      </c>
+      <c r="H29" s="50">
+        <v>3755092</v>
+      </c>
+      <c r="I29">
+        <v>15996063</v>
+      </c>
+      <c r="J29" s="50">
+        <v>328464</v>
+      </c>
+      <c r="K29" s="50">
+        <f t="shared" si="10"/>
+        <v>35.593815601844923</v>
+      </c>
+      <c r="L29" s="50">
+        <f t="shared" si="11"/>
+        <v>24.698690606137166</v>
+      </c>
+      <c r="M29" s="51">
+        <f t="shared" si="7"/>
+        <v>63.687938598823926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="T28" s="30">
-        <f t="shared" si="12"/>
+      <c r="F30" s="55">
+        <f t="shared" si="4"/>
         <v>26665697</v>
       </c>
-      <c r="U28" s="30">
-        <v>10201194</v>
-      </c>
-      <c r="V28" s="30">
-        <v>611403</v>
-      </c>
-      <c r="W28" s="30">
-        <v>15849296</v>
-      </c>
-      <c r="X28" s="30">
-        <v>3804</v>
-      </c>
-      <c r="Y28" s="30">
-        <f t="shared" si="28"/>
-        <v>54.437878095518435</v>
-      </c>
-      <c r="Z28" s="30">
-        <f t="shared" si="29"/>
-        <v>38.255868579021204</v>
-      </c>
-      <c r="AA28" s="31">
-        <f t="shared" si="15"/>
-        <v>94.345456507812145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C29" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="F29" s="63">
-        <f t="shared" si="22"/>
-        <v>10816444</v>
-      </c>
-      <c r="G29" s="63">
-        <v>6586078</v>
-      </c>
-      <c r="H29" s="63">
-        <v>3755092</v>
-      </c>
-      <c r="I29" s="63">
-        <v>146810</v>
-      </c>
-      <c r="J29" s="63">
-        <v>328464</v>
-      </c>
-      <c r="K29" s="63">
-        <f t="shared" si="26"/>
-        <v>62.257284777007463</v>
-      </c>
-      <c r="L29" s="63">
-        <f t="shared" si="27"/>
-        <v>60.889493811459658</v>
-      </c>
-      <c r="M29" s="64">
-        <f t="shared" si="23"/>
-        <v>63.687938598823926</v>
-      </c>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R29" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="S29" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="T29" s="63">
-        <f t="shared" si="12"/>
-        <v>26665697</v>
-      </c>
-      <c r="U29" s="63">
-        <v>6586078</v>
-      </c>
-      <c r="V29" s="63">
-        <v>3755092</v>
-      </c>
-      <c r="W29" s="61">
-        <v>15996063</v>
-      </c>
-      <c r="X29" s="63">
-        <v>328464</v>
-      </c>
-      <c r="Y29" s="63">
-        <f t="shared" si="28"/>
-        <v>35.593815601844923</v>
-      </c>
-      <c r="Z29" s="63">
-        <f t="shared" si="29"/>
-        <v>24.698690606137166</v>
-      </c>
-      <c r="AA29" s="64">
-        <f t="shared" si="15"/>
-        <v>63.687938598823926</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" s="68">
-        <f t="shared" si="22"/>
-        <v>10816444</v>
-      </c>
-      <c r="G30" s="68">
+      <c r="G30" s="55">
         <v>10300363</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="55">
         <v>512234</v>
       </c>
-      <c r="I30" s="68">
-        <v>51</v>
-      </c>
-      <c r="J30" s="68">
+      <c r="I30">
+        <v>15849304</v>
+      </c>
+      <c r="J30" s="55">
         <v>3796</v>
       </c>
-      <c r="K30" s="68">
-        <f t="shared" si="26"/>
-        <v>95.245674553948092</v>
-      </c>
-      <c r="L30" s="68">
-        <f t="shared" si="27"/>
-        <v>95.228736912057229</v>
-      </c>
-      <c r="M30" s="69">
-        <f t="shared" si="23"/>
+      <c r="K30" s="55">
+        <f t="shared" si="10"/>
+        <v>54.967085748353426</v>
+      </c>
+      <c r="L30" s="55">
+        <f t="shared" si="11"/>
+        <v>38.627765852135795</v>
+      </c>
+      <c r="M30" s="56">
+        <f t="shared" si="7"/>
         <v>95.262618222060809</v>
       </c>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
-      <c r="S30" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="T30" s="68">
-        <f t="shared" si="12"/>
-        <v>26665697</v>
-      </c>
-      <c r="U30" s="68">
-        <v>10300363</v>
-      </c>
-      <c r="V30" s="68">
-        <v>512234</v>
-      </c>
-      <c r="W30" s="61">
-        <v>15849304</v>
-      </c>
-      <c r="X30" s="68">
-        <v>3796</v>
-      </c>
-      <c r="Y30" s="68">
-        <f t="shared" si="28"/>
-        <v>54.967085748353426</v>
-      </c>
-      <c r="Z30" s="68">
-        <f t="shared" si="29"/>
-        <v>38.627765852135795</v>
-      </c>
-      <c r="AA30" s="69">
-        <f t="shared" si="15"/>
-        <v>95.262618222060809</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C31" s="23" t="s">
         <v>155</v>
       </c>
@@ -10029,8 +9150,8 @@
         <v>177</v>
       </c>
       <c r="F31" s="27">
-        <f t="shared" si="22"/>
-        <v>16570427</v>
+        <f t="shared" si="4"/>
+        <v>26665697</v>
       </c>
       <c r="G31" s="27">
         <v>9910937</v>
@@ -10039,73 +9160,33 @@
         <v>6015556</v>
       </c>
       <c r="I31" s="27">
-        <v>177629</v>
+        <v>10272899</v>
       </c>
       <c r="J31" s="27">
         <v>466305</v>
       </c>
       <c r="K31" s="27">
-        <f t="shared" si="26"/>
-        <v>60.996162097823422</v>
+        <f t="shared" si="10"/>
+        <v>46.538752761950022</v>
       </c>
       <c r="L31" s="27">
-        <f t="shared" si="27"/>
-        <v>59.810993404092727</v>
+        <f t="shared" si="11"/>
+        <v>37.167365248318838</v>
       </c>
       <c r="M31" s="28">
-        <f t="shared" si="23"/>
+        <f t="shared" si="7"/>
         <v>62.229249088295838</v>
       </c>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="R31" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="S31" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="T31" s="27">
-        <f t="shared" si="12"/>
-        <v>26665697</v>
-      </c>
-      <c r="U31" s="27">
-        <v>9910937</v>
-      </c>
-      <c r="V31" s="27">
-        <v>6015556</v>
-      </c>
-      <c r="W31" s="27">
-        <v>10272899</v>
-      </c>
-      <c r="X31" s="27">
-        <v>466305</v>
-      </c>
-      <c r="Y31" s="27">
-        <f t="shared" si="28"/>
-        <v>46.538752761950022</v>
-      </c>
-      <c r="Z31" s="27">
-        <f t="shared" si="29"/>
-        <v>37.167365248318838</v>
-      </c>
-      <c r="AA31" s="28">
-        <f t="shared" si="15"/>
-        <v>62.229249088295838</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C32" s="23"/>
       <c r="D32" s="23"/>
       <c r="E32" s="29" t="s">
         <v>178</v>
       </c>
       <c r="F32" s="30">
-        <f t="shared" ref="F32:F34" si="30">G32+H32+I32+J32</f>
-        <v>16570427</v>
+        <f t="shared" ref="F32:F34" si="12">G32+H32+I32+J32</f>
+        <v>26665697</v>
       </c>
       <c r="G32" s="30">
         <v>15654770</v>
@@ -10113,212 +9194,98 @@
       <c r="H32" s="30">
         <v>909845</v>
       </c>
-      <c r="I32" s="30">
-        <v>35</v>
+      <c r="I32" s="23">
+        <v>10095305</v>
       </c>
       <c r="J32" s="30">
         <v>5777</v>
       </c>
       <c r="K32" s="30">
-        <f t="shared" si="26"/>
-        <v>94.490720730035605</v>
+        <f t="shared" si="10"/>
+        <v>72.424968850560219</v>
       </c>
       <c r="L32" s="30">
-        <f t="shared" si="27"/>
-        <v>94.474149640199386</v>
-      </c>
-      <c r="M32" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="11"/>
+        <v>58.707522252277897</v>
+      </c>
+      <c r="M32" s="37">
+        <f t="shared" si="7"/>
         <v>94.507297634143626</v>
       </c>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="29" t="s">
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" s="50">
+        <f t="shared" si="12"/>
+        <v>26665697</v>
+      </c>
+      <c r="G33" s="50">
+        <v>7676671</v>
+      </c>
+      <c r="H33" s="50">
+        <v>4884548</v>
+      </c>
+      <c r="I33" s="50">
+        <v>13599379</v>
+      </c>
+      <c r="J33" s="50">
+        <v>505099</v>
+      </c>
+      <c r="K33" s="50">
+        <f t="shared" si="10"/>
+        <v>39.139814101113636</v>
+      </c>
+      <c r="L33" s="50">
+        <f t="shared" si="11"/>
+        <v>28.788563074124784</v>
+      </c>
+      <c r="M33" s="51">
+        <f t="shared" si="7"/>
+        <v>61.114060665608974</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="T32" s="30">
-        <f t="shared" ref="T32:T34" si="31">U32+V32+W32+X32</f>
+      <c r="F34" s="55">
+        <f t="shared" si="12"/>
         <v>26665697</v>
       </c>
-      <c r="U32" s="30">
-        <v>15654770</v>
-      </c>
-      <c r="V32" s="30">
-        <v>909845</v>
-      </c>
-      <c r="W32" s="23">
-        <v>10095305</v>
-      </c>
-      <c r="X32" s="30">
-        <v>5777</v>
-      </c>
-      <c r="Y32" s="30">
-        <f t="shared" si="28"/>
-        <v>72.424968850560219</v>
-      </c>
-      <c r="Z32" s="30">
-        <f t="shared" si="29"/>
-        <v>58.707522252277897</v>
-      </c>
-      <c r="AA32" s="37">
-        <f t="shared" si="15"/>
-        <v>94.507297634143626</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C33" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" s="63">
-        <f t="shared" si="30"/>
-        <v>16570427</v>
-      </c>
-      <c r="G33" s="63">
-        <v>7676671</v>
-      </c>
-      <c r="H33" s="63">
-        <v>4884548</v>
-      </c>
-      <c r="I33" s="63">
-        <v>3504109</v>
-      </c>
-      <c r="J33" s="63">
-        <v>505099</v>
-      </c>
-      <c r="K33" s="63">
-        <f t="shared" si="26"/>
-        <v>52.703311031584008</v>
-      </c>
-      <c r="L33" s="63">
-        <f t="shared" si="27"/>
-        <v>46.327538813574328</v>
-      </c>
-      <c r="M33" s="64">
-        <f t="shared" si="23"/>
-        <v>61.114060665608974</v>
-      </c>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R33" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="S33" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="T33" s="63">
-        <f t="shared" si="31"/>
-        <v>26665697</v>
-      </c>
-      <c r="U33" s="63">
-        <v>7676671</v>
-      </c>
-      <c r="V33" s="63">
-        <v>4884548</v>
-      </c>
-      <c r="W33" s="63">
-        <v>13599379</v>
-      </c>
-      <c r="X33" s="63">
-        <v>505099</v>
-      </c>
-      <c r="Y33" s="63">
-        <f t="shared" si="28"/>
-        <v>39.139814101113636</v>
-      </c>
-      <c r="Z33" s="63">
-        <f t="shared" si="29"/>
-        <v>28.788563074124784</v>
-      </c>
-      <c r="AA33" s="64">
-        <f t="shared" si="15"/>
-        <v>61.114060665608974</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="F34" s="68">
-        <f t="shared" si="30"/>
-        <v>16570427</v>
-      </c>
-      <c r="G34" s="68">
+      <c r="G34" s="55">
         <v>12528676</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="55">
         <v>759856</v>
       </c>
-      <c r="I34" s="68">
-        <v>3276822</v>
-      </c>
-      <c r="J34" s="68">
+      <c r="I34" s="55">
+        <v>13372092</v>
+      </c>
+      <c r="J34" s="55">
         <v>5073</v>
       </c>
-      <c r="K34" s="68">
-        <f t="shared" si="26"/>
-        <v>83.919040848008137</v>
-      </c>
-      <c r="L34" s="68">
-        <f t="shared" si="27"/>
-        <v>75.608649071022739</v>
-      </c>
-      <c r="M34" s="69">
-        <f t="shared" si="23"/>
+      <c r="K34" s="55">
+        <f t="shared" si="10"/>
+        <v>62.71514337068048</v>
+      </c>
+      <c r="L34" s="55">
+        <f t="shared" si="11"/>
+        <v>46.984243464552975</v>
+      </c>
+      <c r="M34" s="56">
+        <f t="shared" si="7"/>
         <v>94.281866499625394</v>
       </c>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="T34" s="68">
-        <f t="shared" si="31"/>
-        <v>26665697</v>
-      </c>
-      <c r="U34" s="68">
-        <v>12528676</v>
-      </c>
-      <c r="V34" s="68">
-        <v>759856</v>
-      </c>
-      <c r="W34" s="68">
-        <v>13372092</v>
-      </c>
-      <c r="X34" s="68">
-        <v>5073</v>
-      </c>
-      <c r="Y34" s="68">
-        <f t="shared" si="28"/>
-        <v>62.71514337068048</v>
-      </c>
-      <c r="Z34" s="68">
-        <f t="shared" si="29"/>
-        <v>46.984243464552975</v>
-      </c>
-      <c r="AA34" s="69">
-        <f t="shared" si="15"/>
-        <v>94.281866499625394</v>
-      </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C35" s="23" t="s">
         <v>153</v>
       </c>
@@ -10327,290 +9294,139 @@
         <v>177</v>
       </c>
       <c r="F35" s="23">
-        <f>G35+H35+I35+J35</f>
+        <f t="shared" ref="F35:F38" si="13">G35+H35+I35+J35</f>
         <v>26665697</v>
       </c>
-      <c r="G35" s="79">
+      <c r="G35" s="23">
         <v>9479692</v>
       </c>
-      <c r="H35" s="79">
-        <v>6446799</v>
-      </c>
-      <c r="I35" s="79">
-        <v>10273674</v>
-      </c>
-      <c r="J35" s="79">
+      <c r="H35" s="23">
+        <v>6446800</v>
+      </c>
+      <c r="I35" s="23">
+        <v>10273673</v>
+      </c>
+      <c r="J35" s="23">
         <v>465532</v>
       </c>
       <c r="K35" s="23">
-        <f t="shared" ref="K35:K36" si="32">2/(1/L35+1/M35)</f>
-        <v>44.513759189830772</v>
+        <f t="shared" ref="K35:K38" si="14">2/(1/L35+1/M35)</f>
+        <v>44.513758144715219</v>
       </c>
       <c r="L35" s="23">
-        <f t="shared" ref="L35:L36" si="33">G35/F35*100</f>
+        <f t="shared" ref="L35:L38" si="15">G35/F35*100</f>
         <v>35.550137691881822</v>
       </c>
       <c r="M35" s="33">
-        <f>G35/(G35+H35)*100</f>
-        <v>59.521535534726389</v>
-      </c>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="R35" s="23"/>
-      <c r="S35" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="T35" s="23">
-        <f t="shared" ref="T35:T38" si="34">U35+V35+W35+X35</f>
-        <v>26665697</v>
-      </c>
-      <c r="U35" s="79">
-        <v>9479692</v>
-      </c>
-      <c r="V35" s="79">
-        <v>6446800</v>
-      </c>
-      <c r="W35" s="79">
-        <v>10273673</v>
-      </c>
-      <c r="X35" s="79">
-        <v>465532</v>
-      </c>
-      <c r="Y35" s="23">
-        <f t="shared" ref="Y35:Y38" si="35">2/(1/Z35+1/AA35)</f>
-        <v>44.513758144715219</v>
-      </c>
-      <c r="Z35" s="23">
-        <f t="shared" ref="Z35:Z38" si="36">U35/T35*100</f>
-        <v>35.550137691881822</v>
-      </c>
-      <c r="AA35" s="33">
-        <f t="shared" ref="AA35:AA38" si="37">U35/(U35+V35)*100</f>
+        <f t="shared" ref="M35:M38" si="16">G35/(G35+H35)*100</f>
         <v>59.521531797460483</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
       <c r="E36" s="29" t="s">
         <v>178</v>
       </c>
       <c r="F36" s="30">
-        <f>G36+H36+I36+J36</f>
+        <f t="shared" si="13"/>
         <v>26665697</v>
       </c>
       <c r="G36" s="30">
         <v>15525306</v>
       </c>
       <c r="H36" s="30">
-        <v>1039307</v>
+        <v>1039308</v>
       </c>
       <c r="I36" s="30">
-        <v>10095354</v>
+        <v>10095353</v>
       </c>
       <c r="J36" s="30">
         <v>5730</v>
       </c>
       <c r="K36" s="30">
-        <f t="shared" si="32"/>
-        <v>71.826022066462173</v>
+        <f t="shared" si="14"/>
+        <v>71.826020404988526</v>
       </c>
       <c r="L36" s="30">
-        <f t="shared" si="33"/>
+        <f t="shared" si="15"/>
         <v>58.222014598005821</v>
       </c>
       <c r="M36" s="31">
-        <f>G36/(G36+H36)*100</f>
-        <v>93.725739321528366</v>
-      </c>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="29" t="s">
+        <f t="shared" si="16"/>
+        <v>93.725733663338005</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="13"/>
+        <v>26665697</v>
+      </c>
+      <c r="G37">
+        <v>4415058</v>
+      </c>
+      <c r="H37">
+        <v>2468670</v>
+      </c>
+      <c r="I37">
+        <v>19591617</v>
+      </c>
+      <c r="J37">
+        <v>190352</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="14"/>
+        <v>26.319723810467689</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="15"/>
+        <v>16.557069556441746</v>
+      </c>
+      <c r="M37" s="59">
+        <f t="shared" si="16"/>
+        <v>64.137601020842197</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E38" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="T36" s="30">
-        <f t="shared" si="34"/>
+      <c r="F38" s="55">
+        <f t="shared" si="13"/>
         <v>26665697</v>
       </c>
-      <c r="U36" s="30">
-        <v>15525306</v>
-      </c>
-      <c r="V36" s="30">
-        <v>1039308</v>
-      </c>
-      <c r="W36" s="30">
-        <v>10095353</v>
-      </c>
-      <c r="X36" s="30">
-        <v>5730</v>
-      </c>
-      <c r="Y36" s="30">
-        <f t="shared" si="35"/>
-        <v>71.826020404988526</v>
-      </c>
-      <c r="Z36" s="30">
-        <f t="shared" si="36"/>
-        <v>58.222014598005821</v>
-      </c>
-      <c r="AA36" s="31">
-        <f t="shared" si="37"/>
-        <v>93.725733663338005</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C37" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="F37" s="61">
-        <f>G37+H37+I37+J37</f>
-        <v>26665697</v>
-      </c>
-      <c r="G37" s="60">
-        <v>6416664</v>
-      </c>
-      <c r="H37" s="60">
-        <v>3924505</v>
-      </c>
-      <c r="I37" s="60">
-        <v>15994448</v>
-      </c>
-      <c r="J37" s="60">
-        <v>330080</v>
-      </c>
-      <c r="K37" s="61">
-        <f t="shared" ref="K37:K38" si="38">2/(1/L37+1/M37)</f>
-        <v>34.678235114532534</v>
-      </c>
-      <c r="L37" s="61">
-        <f t="shared" ref="L37:L38" si="39">G37/F37*100</f>
-        <v>24.063365004109961</v>
-      </c>
-      <c r="M37" s="73">
-        <f>G37/(G37+H37)*100</f>
-        <v>62.049696702568156</v>
-      </c>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="R37" s="61"/>
-      <c r="S37" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="T37" s="61">
-        <f t="shared" si="34"/>
-        <v>26665697</v>
-      </c>
-      <c r="U37" s="60">
-        <v>4415058</v>
-      </c>
-      <c r="V37" s="60">
-        <v>2468670</v>
-      </c>
-      <c r="W37" s="60">
-        <v>19591617</v>
-      </c>
-      <c r="X37" s="60">
-        <v>190352</v>
-      </c>
-      <c r="Y37" s="61">
-        <f t="shared" si="35"/>
-        <v>26.319723810467689</v>
-      </c>
-      <c r="Z37" s="61">
-        <f t="shared" si="36"/>
-        <v>16.557069556441746</v>
-      </c>
-      <c r="AA37" s="73">
-        <f t="shared" si="37"/>
-        <v>64.137601020842197</v>
-      </c>
-    </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="F38" s="68">
-        <f>G38+H38+I38+J38</f>
-        <v>26665697</v>
-      </c>
-      <c r="G38" s="68">
-        <v>10219377</v>
-      </c>
-      <c r="H38" s="68">
-        <v>593219</v>
-      </c>
-      <c r="I38" s="68">
-        <v>15849295</v>
-      </c>
-      <c r="J38" s="68">
-        <v>3806</v>
-      </c>
-      <c r="K38" s="68">
-        <f t="shared" si="38"/>
-        <v>54.534911715429509</v>
-      </c>
-      <c r="L38" s="68">
-        <f t="shared" si="39"/>
-        <v>38.324057308533881</v>
-      </c>
-      <c r="M38" s="69">
-        <f>G38/(G38+H38)*100</f>
-        <v>94.513630214242724</v>
-      </c>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="T38" s="68">
-        <f t="shared" si="34"/>
-        <v>26665697</v>
-      </c>
-      <c r="U38" s="68">
+      <c r="G38" s="55">
         <v>6812341</v>
       </c>
-      <c r="V38" s="68">
+      <c r="H38" s="55">
         <v>315765</v>
       </c>
-      <c r="W38" s="68">
+      <c r="I38" s="55">
         <v>19535163</v>
       </c>
-      <c r="X38" s="68">
+      <c r="J38" s="55">
         <v>2428</v>
       </c>
-      <c r="Y38" s="68">
-        <f t="shared" si="35"/>
+      <c r="K38" s="55">
+        <f t="shared" si="14"/>
         <v>40.317101925462488</v>
       </c>
-      <c r="Z38" s="68">
-        <f t="shared" si="36"/>
+      <c r="L38" s="55">
+        <f t="shared" si="15"/>
         <v>25.54720771034037</v>
       </c>
-      <c r="AA38" s="69">
-        <f t="shared" si="37"/>
+      <c r="M38" s="56">
+        <f t="shared" si="16"/>
         <v>95.570141633696252</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C39" s="23" t="s">
         <v>212</v>
       </c>
@@ -10626,66 +9442,28 @@
         <v>3474363</v>
       </c>
       <c r="H39" s="27">
-        <v>16339772</v>
+        <v>16339773</v>
       </c>
       <c r="I39" s="27">
-        <v>6851562</v>
+        <v>6851561</v>
       </c>
       <c r="J39" s="27">
         <v>0</v>
       </c>
       <c r="K39" s="27">
-        <f>2/(1/L39+1/M39)</f>
-        <v>14.94998088633367</v>
+        <f t="shared" ref="K39:K40" si="17">2/(1/L39+1/M39)</f>
+        <v>14.949980564689206</v>
       </c>
       <c r="L39" s="27">
-        <f>G39/F39*100</f>
+        <f t="shared" ref="L39:L40" si="18">G39/F39*100</f>
         <v>13.029335029195</v>
       </c>
       <c r="M39" s="28">
-        <f>G39/(G39+H39)*100</f>
-        <v>17.534770001314719</v>
-      </c>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="R39" s="23"/>
-      <c r="S39" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="T39" s="27">
-        <f>U39+V39+W39+X39</f>
-        <v>26665697</v>
-      </c>
-      <c r="U39" s="27">
-        <v>3474363</v>
-      </c>
-      <c r="V39" s="27">
-        <v>16339773</v>
-      </c>
-      <c r="W39" s="27">
-        <v>6851561</v>
-      </c>
-      <c r="X39" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="27">
-        <f t="shared" ref="Y39:Y40" si="40">2/(1/Z39+1/AA39)</f>
-        <v>14.949980564689206</v>
-      </c>
-      <c r="Z39" s="27">
-        <f t="shared" ref="Z39:Z40" si="41">U39/T39*100</f>
-        <v>13.029335029195</v>
-      </c>
-      <c r="AA39" s="28">
-        <f t="shared" ref="AA39:AA40" si="42">U39/(U39+V39)*100</f>
+        <f t="shared" ref="M39:M40" si="19">G39/(G39+H39)*100</f>
         <v>17.534769116352084</v>
       </c>
     </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
       <c r="E40" s="29" t="s">
@@ -10699,212 +9477,97 @@
         <v>18245798</v>
       </c>
       <c r="H40" s="30">
-        <v>1568337</v>
+        <v>1568338</v>
       </c>
       <c r="I40" s="30">
-        <v>6851562</v>
+        <v>6851561</v>
       </c>
       <c r="J40" s="30">
         <v>0</v>
       </c>
-      <c r="K40" s="30">
-        <f>2/(1/L40+1/M40)</f>
-        <v>78.510602189784166</v>
-      </c>
-      <c r="L40" s="30">
-        <f>G40/F40*100</f>
+      <c r="K40" s="38">
+        <f t="shared" si="17"/>
+        <v>78.510600500651549</v>
+      </c>
+      <c r="L40" s="38">
+        <f t="shared" si="18"/>
         <v>68.424230576084327</v>
       </c>
       <c r="M40" s="31">
-        <f>G40/(G40+H40)*100</f>
-        <v>92.084756664875854</v>
-      </c>
-      <c r="N40" s="61"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="61"/>
-      <c r="Q40" s="23"/>
-      <c r="R40" s="23"/>
-      <c r="S40" s="29" t="s">
+        <f t="shared" si="19"/>
+        <v>92.084752017448551</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41:F42" si="20">G41+H41+I41+J41</f>
+        <v>26665697</v>
+      </c>
+      <c r="G41">
+        <v>10916032</v>
+      </c>
+      <c r="H41">
+        <v>6179946</v>
+      </c>
+      <c r="I41">
+        <v>9030629</v>
+      </c>
+      <c r="J41">
+        <v>539090</v>
+      </c>
+      <c r="K41" s="63">
+        <f t="shared" ref="K41:K42" si="21">2/(1/L41+1/M41)</f>
+        <v>49.888547456193116</v>
+      </c>
+      <c r="L41" s="63">
+        <f t="shared" ref="L41:L42" si="22">G41/F41*100</f>
+        <v>40.93660855742867</v>
+      </c>
+      <c r="M41" s="64">
+        <f t="shared" ref="M41:M42" si="23">G41/(G41+H41)*100</f>
+        <v>63.851462607169942</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E42" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="T40" s="30">
-        <f>U40+V40+W40+X40</f>
+      <c r="F42" s="55">
+        <f t="shared" si="20"/>
         <v>26665697</v>
       </c>
-      <c r="U40" s="30">
-        <v>18245798</v>
-      </c>
-      <c r="V40" s="30">
-        <v>1568338</v>
-      </c>
-      <c r="W40" s="30">
-        <v>6851561</v>
-      </c>
-      <c r="X40" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="38">
-        <f t="shared" si="40"/>
-        <v>78.510600500651549</v>
-      </c>
-      <c r="Z40" s="38">
-        <f t="shared" si="41"/>
-        <v>68.424230576084327</v>
-      </c>
-      <c r="AA40" s="31">
-        <f t="shared" si="42"/>
-        <v>92.084752017448551</v>
-      </c>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C41" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="F41" s="61">
-        <f>G41+H41+I41+J41</f>
-        <v>26665697</v>
-      </c>
-      <c r="G41" s="61">
-        <v>10916032</v>
-      </c>
-      <c r="H41" s="61">
-        <v>6179945</v>
-      </c>
-      <c r="I41" s="61">
-        <f>193235+8837395</f>
-        <v>9030630</v>
-      </c>
-      <c r="J41" s="61">
-        <v>539090</v>
-      </c>
-      <c r="K41" s="61">
-        <f t="shared" ref="K41:K42" si="43">2/(1/L41+1/M41)</f>
-        <v>49.888548596198582</v>
-      </c>
-      <c r="L41" s="61">
-        <f t="shared" ref="L41:L42" si="44">G41/F41*100</f>
-        <v>40.93660855742867</v>
-      </c>
-      <c r="M41" s="73">
-        <f>G41/(G41+H41)*100</f>
-        <v>63.851466342052291</v>
-      </c>
-      <c r="N41" s="61"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="R41" s="61"/>
-      <c r="S41" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="T41" s="61">
-        <f t="shared" ref="T41:T42" si="45">U41+V41+W41+X41</f>
-        <v>26665697</v>
-      </c>
-      <c r="U41" s="61">
-        <v>10916032</v>
-      </c>
-      <c r="V41" s="61">
-        <v>6179946</v>
-      </c>
-      <c r="W41" s="61">
-        <v>9030629</v>
-      </c>
-      <c r="X41" s="61">
-        <v>539090</v>
-      </c>
-      <c r="Y41" s="77">
-        <f t="shared" ref="Y41:Y42" si="46">2/(1/Z41+1/AA41)</f>
-        <v>49.888547456193116</v>
-      </c>
-      <c r="Z41" s="77">
-        <f t="shared" ref="Z41:Z42" si="47">U41/T41*100</f>
-        <v>40.93660855742867</v>
-      </c>
-      <c r="AA41" s="78">
-        <f t="shared" ref="AA41:AA42" si="48">U41/(U41+V41)*100</f>
-        <v>63.851462607169942</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="F42" s="68">
-        <f>G42+H42+I42+J42</f>
-        <v>26665697</v>
-      </c>
-      <c r="G42" s="68">
+      <c r="G42" s="55">
         <v>15493232</v>
       </c>
-      <c r="H42" s="68">
-        <v>2328055</v>
-      </c>
-      <c r="I42" s="68">
-        <f>4255+8837395</f>
-        <v>8841650</v>
-      </c>
-      <c r="J42" s="68">
+      <c r="H42" s="55">
+        <v>2328056</v>
+      </c>
+      <c r="I42" s="55">
+        <v>8841649</v>
+      </c>
+      <c r="J42" s="55">
         <v>2760</v>
       </c>
-      <c r="K42" s="68">
-        <f t="shared" si="43"/>
-        <v>69.652876445838629</v>
-      </c>
-      <c r="L42" s="68">
-        <f t="shared" si="44"/>
+      <c r="K42" s="55">
+        <f t="shared" si="21"/>
+        <v>69.652874880147536</v>
+      </c>
+      <c r="L42" s="55">
+        <f t="shared" si="22"/>
         <v>58.101732724256181</v>
       </c>
-      <c r="M42" s="69">
-        <f>G42/(G42+H42)*100</f>
-        <v>86.936661757369151</v>
-      </c>
-      <c r="N42" s="61"/>
-      <c r="O42" s="61"/>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="T42" s="68">
-        <f t="shared" si="45"/>
-        <v>26665697</v>
-      </c>
-      <c r="U42" s="68">
-        <v>15493232</v>
-      </c>
-      <c r="V42" s="68">
-        <v>2328056</v>
-      </c>
-      <c r="W42" s="68">
-        <v>8841649</v>
-      </c>
-      <c r="X42" s="68">
-        <v>2760</v>
-      </c>
-      <c r="Y42" s="68">
-        <f t="shared" si="46"/>
-        <v>69.652874880147536</v>
-      </c>
-      <c r="Z42" s="68">
-        <f t="shared" si="47"/>
-        <v>58.101732724256181</v>
-      </c>
-      <c r="AA42" s="69">
-        <f t="shared" si="48"/>
+      <c r="M42" s="56">
+        <f t="shared" si="23"/>
         <v>86.936656879121202</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>192</v>
       </c>
@@ -10918,8 +9581,8 @@
         <v>180</v>
       </c>
       <c r="F43" s="23">
-        <f t="shared" ref="F43:F57" si="49">G43+H43+I43+J43</f>
-        <v>12975820</v>
+        <f t="shared" ref="F43:F57" si="24">G43+H43+I43+J43</f>
+        <v>26665697</v>
       </c>
       <c r="G43" s="23">
         <v>12589114</v>
@@ -10928,75 +9591,33 @@
         <v>386706</v>
       </c>
       <c r="I43" s="23">
-        <v>0</v>
+        <v>13689877</v>
       </c>
       <c r="J43" s="23">
         <v>0</v>
       </c>
       <c r="K43" s="23">
-        <f t="shared" ref="K43:K57" si="50">2/(1/L43+1/M43)</f>
+        <f t="shared" ref="K43:K57" si="25">2/(1/L43+1/M43)</f>
+        <v>63.514794350579471</v>
+      </c>
+      <c r="L43" s="23">
+        <f t="shared" ref="L43:L57" si="26">G43/F43*100</f>
+        <v>47.210894206140566</v>
+      </c>
+      <c r="M43" s="33">
+        <f t="shared" ref="M43:M51" si="27">G43/(G43+H43)*100</f>
         <v>97.019795280760675</v>
       </c>
-      <c r="L43" s="23">
-        <f t="shared" ref="L43:L57" si="51">G43/F43*100</f>
-        <v>97.019795280760675</v>
-      </c>
-      <c r="M43" s="33">
-        <f t="shared" ref="M43:M51" si="52">G43/(G43+H43)*100</f>
-        <v>97.019795280760675</v>
-      </c>
-      <c r="N43" s="61"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q43" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="R43" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="S43" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="T43" s="23">
-        <f t="shared" ref="T43:T57" si="53">U43+V43+W43+X43</f>
-        <v>26665697</v>
-      </c>
-      <c r="U43" s="23">
-        <v>12589114</v>
-      </c>
-      <c r="V43" s="23">
-        <v>386706</v>
-      </c>
-      <c r="W43" s="23">
-        <v>13689877</v>
-      </c>
-      <c r="X43" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="23">
-        <f t="shared" ref="Y43:Y57" si="54">2/(1/Z43+1/AA43)</f>
-        <v>63.514794350579471</v>
-      </c>
-      <c r="Z43" s="23">
-        <f t="shared" ref="Z43:Z57" si="55">U43/T43*100</f>
-        <v>47.210894206140566</v>
-      </c>
-      <c r="AA43" s="33">
-        <f t="shared" ref="AA43:AA51" si="56">U43/(U43+V43)*100</f>
-        <v>97.019795280760675</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C44" s="23"/>
       <c r="D44" s="23"/>
       <c r="E44" s="32" t="s">
         <v>177</v>
       </c>
       <c r="F44" s="23">
-        <f t="shared" si="49"/>
-        <v>12975820</v>
+        <f t="shared" si="24"/>
+        <v>26665697</v>
       </c>
       <c r="G44" s="23">
         <v>11350406</v>
@@ -11005,69 +9626,33 @@
         <v>318613</v>
       </c>
       <c r="I44" s="23">
-        <v>15371</v>
+        <v>13705248</v>
       </c>
       <c r="J44" s="23">
         <v>1291430</v>
       </c>
       <c r="K44" s="23">
-        <f t="shared" si="50"/>
-        <v>92.111829174457171</v>
+        <f t="shared" si="25"/>
+        <v>59.217373620297593</v>
       </c>
       <c r="L44" s="23">
-        <f t="shared" si="51"/>
-        <v>87.473516124607158</v>
+        <f t="shared" si="26"/>
+        <v>42.565570290549694</v>
       </c>
       <c r="M44" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="27"/>
         <v>97.269581958860456</v>
       </c>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="T44" s="23">
-        <f t="shared" si="53"/>
-        <v>26665697</v>
-      </c>
-      <c r="U44" s="23">
-        <v>11350406</v>
-      </c>
-      <c r="V44" s="23">
-        <v>318613</v>
-      </c>
-      <c r="W44" s="23">
-        <v>13705248</v>
-      </c>
-      <c r="X44" s="23">
-        <v>1291430</v>
-      </c>
-      <c r="Y44" s="23">
-        <f t="shared" si="54"/>
-        <v>59.217373620297593</v>
-      </c>
-      <c r="Z44" s="23">
-        <f t="shared" si="55"/>
-        <v>42.565570290549694</v>
-      </c>
-      <c r="AA44" s="33">
-        <f t="shared" si="56"/>
-        <v>97.269581958860456</v>
-      </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="E45" s="29" t="s">
         <v>178</v>
       </c>
       <c r="F45" s="30">
-        <f t="shared" si="49"/>
-        <v>12975820</v>
+        <f t="shared" si="24"/>
+        <v>26665697</v>
       </c>
       <c r="G45" s="30">
         <v>12852032</v>
@@ -11075,283 +9660,131 @@
       <c r="H45" s="30">
         <v>25028</v>
       </c>
-      <c r="I45" s="30">
-        <v>1241</v>
+      <c r="I45" s="23">
+        <v>13691118</v>
       </c>
       <c r="J45" s="30">
         <v>97519</v>
       </c>
       <c r="K45" s="30">
-        <f t="shared" si="50"/>
-        <v>99.424373609439257</v>
+        <f t="shared" si="25"/>
+        <v>65.003216644706882</v>
       </c>
       <c r="L45" s="30">
-        <f t="shared" si="51"/>
-        <v>99.046010194346096</v>
+        <f t="shared" si="26"/>
+        <v>48.196872558778416</v>
       </c>
       <c r="M45" s="31">
-        <f t="shared" si="52"/>
+        <f t="shared" si="27"/>
         <v>99.805638864771922</v>
       </c>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="29" t="s">
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="50">
+        <f t="shared" si="24"/>
+        <v>26665697</v>
+      </c>
+      <c r="G46" s="50">
+        <v>12596158</v>
+      </c>
+      <c r="H46" s="50">
+        <v>379662</v>
+      </c>
+      <c r="I46" s="50">
+        <v>13689877</v>
+      </c>
+      <c r="J46" s="50">
+        <v>0</v>
+      </c>
+      <c r="K46" s="50">
+        <f t="shared" si="25"/>
+        <v>63.550332849270134</v>
+      </c>
+      <c r="L46" s="50">
+        <f t="shared" si="26"/>
+        <v>47.237310166690939</v>
+      </c>
+      <c r="M46" s="51">
+        <f t="shared" si="27"/>
+        <v>97.07408086733632</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E47" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="24"/>
+        <v>26665697</v>
+      </c>
+      <c r="G47">
+        <v>11352767</v>
+      </c>
+      <c r="H47">
+        <v>316252</v>
+      </c>
+      <c r="I47">
+        <v>13701347</v>
+      </c>
+      <c r="J47">
+        <v>1295331</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="25"/>
+        <v>59.229691436868869</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="26"/>
+        <v>42.57442436250588</v>
+      </c>
+      <c r="M47" s="59">
+        <f t="shared" si="27"/>
+        <v>97.289815022153959</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E48" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="T45" s="30">
-        <f t="shared" si="53"/>
+      <c r="F48" s="55">
+        <f t="shared" si="24"/>
         <v>26665697</v>
       </c>
-      <c r="U45" s="30">
-        <v>12852032</v>
-      </c>
-      <c r="V45" s="30">
-        <v>25028</v>
-      </c>
-      <c r="W45" s="23">
-        <v>13691118</v>
-      </c>
-      <c r="X45" s="30">
-        <v>97519</v>
-      </c>
-      <c r="Y45" s="30">
-        <f t="shared" si="54"/>
-        <v>65.003216644706882</v>
-      </c>
-      <c r="Z45" s="30">
-        <f t="shared" si="55"/>
-        <v>48.196872558778416</v>
-      </c>
-      <c r="AA45" s="31">
-        <f t="shared" si="56"/>
-        <v>99.805638864771922</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C46" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="F46" s="63">
-        <f t="shared" si="49"/>
-        <v>12975820</v>
-      </c>
-      <c r="G46" s="63">
-        <v>12596158</v>
-      </c>
-      <c r="H46" s="63">
-        <v>379662</v>
-      </c>
-      <c r="I46" s="63">
-        <v>0</v>
-      </c>
-      <c r="J46" s="63">
-        <v>0</v>
-      </c>
-      <c r="K46" s="63">
-        <f t="shared" si="50"/>
-        <v>97.07408086733632</v>
-      </c>
-      <c r="L46" s="63">
-        <f t="shared" si="51"/>
-        <v>97.07408086733632</v>
-      </c>
-      <c r="M46" s="64">
-        <f t="shared" si="52"/>
-        <v>97.07408086733632</v>
-      </c>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R46" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="S46" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="T46" s="63">
-        <f t="shared" si="53"/>
-        <v>26665697</v>
-      </c>
-      <c r="U46" s="63">
-        <v>12596158</v>
-      </c>
-      <c r="V46" s="63">
-        <v>379662</v>
-      </c>
-      <c r="W46" s="63">
-        <v>13689877</v>
-      </c>
-      <c r="X46" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="63">
-        <f t="shared" si="54"/>
-        <v>63.550332849270134</v>
-      </c>
-      <c r="Z46" s="63">
-        <f t="shared" si="55"/>
-        <v>47.237310166690939</v>
-      </c>
-      <c r="AA46" s="64">
-        <f t="shared" si="56"/>
-        <v>97.07408086733632</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="F47" s="61">
-        <f t="shared" si="49"/>
-        <v>12975820</v>
-      </c>
-      <c r="G47" s="61">
-        <v>11352767</v>
-      </c>
-      <c r="H47" s="61">
-        <v>316252</v>
-      </c>
-      <c r="I47" s="61">
-        <v>11470</v>
-      </c>
-      <c r="J47" s="61">
-        <v>1295331</v>
-      </c>
-      <c r="K47" s="61">
-        <f t="shared" si="50"/>
-        <v>92.130989372663379</v>
-      </c>
-      <c r="L47" s="61">
-        <f t="shared" si="51"/>
-        <v>87.491711506478978</v>
-      </c>
-      <c r="M47" s="73">
-        <f t="shared" si="52"/>
-        <v>97.289815022153959</v>
-      </c>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
-      <c r="S47" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="T47" s="61">
-        <f t="shared" si="53"/>
-        <v>26665697</v>
-      </c>
-      <c r="U47" s="61">
-        <v>11352767</v>
-      </c>
-      <c r="V47" s="61">
-        <v>316252</v>
-      </c>
-      <c r="W47" s="61">
-        <v>13701347</v>
-      </c>
-      <c r="X47" s="61">
-        <v>1295331</v>
-      </c>
-      <c r="Y47" s="61">
-        <f t="shared" si="54"/>
-        <v>59.229691436868869</v>
-      </c>
-      <c r="Z47" s="61">
-        <f t="shared" si="55"/>
-        <v>42.57442436250588</v>
-      </c>
-      <c r="AA47" s="73">
-        <f t="shared" si="56"/>
-        <v>97.289815022153959</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="F48" s="68">
-        <f t="shared" si="49"/>
-        <v>12975820</v>
-      </c>
-      <c r="G48" s="68">
+      <c r="G48" s="55">
         <v>12855499</v>
       </c>
-      <c r="H48" s="68">
+      <c r="H48" s="55">
         <v>21561</v>
       </c>
-      <c r="I48" s="68">
-        <v>1244</v>
-      </c>
-      <c r="J48" s="68">
+      <c r="I48">
+        <v>13691121</v>
+      </c>
+      <c r="J48" s="55">
         <v>97516</v>
       </c>
-      <c r="K48" s="68">
-        <f t="shared" si="50"/>
-        <v>99.451194605784735</v>
-      </c>
-      <c r="L48" s="68">
-        <f t="shared" si="51"/>
-        <v>99.072729122321363</v>
-      </c>
-      <c r="M48" s="69">
-        <f t="shared" si="52"/>
+      <c r="K48" s="55">
+        <f t="shared" si="25"/>
+        <v>65.020752093739944</v>
+      </c>
+      <c r="L48" s="55">
+        <f t="shared" si="26"/>
+        <v>48.20987428155356</v>
+      </c>
+      <c r="M48" s="58">
+        <f t="shared" si="27"/>
         <v>99.832562712296124</v>
       </c>
-      <c r="N48" s="61"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="61"/>
-      <c r="Q48" s="61"/>
-      <c r="R48" s="61"/>
-      <c r="S48" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="T48" s="68">
-        <f t="shared" si="53"/>
-        <v>26665697</v>
-      </c>
-      <c r="U48" s="68">
-        <v>12855499</v>
-      </c>
-      <c r="V48" s="68">
-        <v>21561</v>
-      </c>
-      <c r="W48" s="61">
-        <v>13691121</v>
-      </c>
-      <c r="X48" s="68">
-        <v>97516</v>
-      </c>
-      <c r="Y48" s="68">
-        <f t="shared" si="54"/>
-        <v>65.020752093739944</v>
-      </c>
-      <c r="Z48" s="68">
-        <f t="shared" si="55"/>
-        <v>48.20987428155356</v>
-      </c>
-      <c r="AA48" s="71">
-        <f t="shared" si="56"/>
-        <v>99.832562712296124</v>
-      </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C49" s="23" t="s">
         <v>155</v>
       </c>
@@ -11362,8 +9795,8 @@
         <v>180</v>
       </c>
       <c r="F49" s="27">
-        <f t="shared" si="49"/>
-        <v>20994872</v>
+        <f t="shared" si="24"/>
+        <v>26665697</v>
       </c>
       <c r="G49" s="27">
         <v>20354387</v>
@@ -11372,73 +9805,33 @@
         <v>640485</v>
       </c>
       <c r="I49" s="27">
-        <v>0</v>
+        <v>5670825</v>
       </c>
       <c r="J49" s="27">
         <v>0</v>
       </c>
       <c r="K49" s="27">
-        <f t="shared" si="50"/>
-        <v>96.94932648315266</v>
+        <f t="shared" si="25"/>
+        <v>85.413948792764103</v>
       </c>
       <c r="L49" s="27">
-        <f t="shared" si="51"/>
+        <f t="shared" si="26"/>
+        <v>76.331726862418037</v>
+      </c>
+      <c r="M49" s="28">
+        <f t="shared" si="27"/>
         <v>96.949326483152646</v>
       </c>
-      <c r="M49" s="28">
-        <f t="shared" si="52"/>
-        <v>96.949326483152646</v>
-      </c>
-      <c r="N49" s="61"/>
-      <c r="O49" s="61"/>
-      <c r="P49" s="61"/>
-      <c r="Q49" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="R49" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="S49" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="T49" s="27">
-        <f t="shared" si="53"/>
-        <v>26665697</v>
-      </c>
-      <c r="U49" s="27">
-        <v>20354387</v>
-      </c>
-      <c r="V49" s="27">
-        <v>640485</v>
-      </c>
-      <c r="W49" s="27">
-        <v>5670825</v>
-      </c>
-      <c r="X49" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="27">
-        <f t="shared" si="54"/>
-        <v>85.413948792764103</v>
-      </c>
-      <c r="Z49" s="27">
-        <f t="shared" si="55"/>
-        <v>76.331726862418037</v>
-      </c>
-      <c r="AA49" s="28">
-        <f t="shared" si="56"/>
-        <v>96.949326483152646</v>
-      </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C50" s="23"/>
       <c r="D50" s="23"/>
       <c r="E50" s="32" t="s">
         <v>177</v>
       </c>
       <c r="F50" s="23">
-        <f t="shared" si="49"/>
-        <v>20994872</v>
+        <f t="shared" si="24"/>
+        <v>26665697</v>
       </c>
       <c r="G50" s="23">
         <v>18344419</v>
@@ -11447,69 +9840,33 @@
         <v>532804</v>
       </c>
       <c r="I50" s="23">
-        <v>29151</v>
+        <v>5699976</v>
       </c>
       <c r="J50" s="23">
         <v>2088498</v>
       </c>
       <c r="K50" s="23">
-        <f t="shared" si="50"/>
-        <v>92.016328713101231</v>
+        <f t="shared" si="25"/>
+        <v>80.558817923839754</v>
       </c>
       <c r="L50" s="23">
-        <f t="shared" si="51"/>
-        <v>87.375712507320841</v>
+        <f t="shared" si="26"/>
+        <v>68.79407277447126</v>
       </c>
       <c r="M50" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="27"/>
         <v>97.177529766957775</v>
       </c>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="T50" s="23">
-        <f t="shared" si="53"/>
-        <v>26665697</v>
-      </c>
-      <c r="U50" s="23">
-        <v>18344419</v>
-      </c>
-      <c r="V50" s="23">
-        <v>532804</v>
-      </c>
-      <c r="W50" s="23">
-        <v>5699976</v>
-      </c>
-      <c r="X50" s="23">
-        <v>2088498</v>
-      </c>
-      <c r="Y50" s="23">
-        <f t="shared" si="54"/>
-        <v>80.558817923839754</v>
-      </c>
-      <c r="Z50" s="23">
-        <f t="shared" si="55"/>
-        <v>68.79407277447126</v>
-      </c>
-      <c r="AA50" s="33">
-        <f t="shared" si="56"/>
-        <v>97.177529766957775</v>
-      </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C51" s="23"/>
       <c r="D51" s="23"/>
       <c r="E51" s="29" t="s">
         <v>178</v>
       </c>
       <c r="F51" s="30">
-        <f t="shared" si="49"/>
-        <v>20994872</v>
+        <f t="shared" si="24"/>
+        <v>26665697</v>
       </c>
       <c r="G51" s="30">
         <v>20787725</v>
@@ -11517,283 +9874,131 @@
       <c r="H51" s="30">
         <v>47083</v>
       </c>
-      <c r="I51" s="30">
-        <v>1748</v>
+      <c r="I51" s="23">
+        <v>5672573</v>
       </c>
       <c r="J51" s="30">
         <v>158316</v>
       </c>
       <c r="K51" s="30">
-        <f t="shared" si="50"/>
-        <v>99.392225807130245</v>
+        <f t="shared" si="25"/>
+        <v>87.526332614779562</v>
       </c>
       <c r="L51" s="30">
-        <f t="shared" si="51"/>
-        <v>99.013344782478313</v>
+        <f t="shared" si="26"/>
+        <v>77.956803454265611</v>
       </c>
       <c r="M51" s="31">
-        <f t="shared" si="52"/>
+        <f t="shared" si="27"/>
         <v>99.774017595938489</v>
       </c>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="29" t="s">
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>153</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="F52" s="50">
+        <f t="shared" si="24"/>
+        <v>26665697</v>
+      </c>
+      <c r="G52" s="50">
+        <v>22456821</v>
+      </c>
+      <c r="H52" s="50">
+        <v>664736</v>
+      </c>
+      <c r="I52" s="50">
+        <v>3544140</v>
+      </c>
+      <c r="J52" s="50">
+        <v>0</v>
+      </c>
+      <c r="K52" s="52">
+        <f t="shared" si="25"/>
+        <v>90.211125120497712</v>
+      </c>
+      <c r="L52" s="52">
+        <f t="shared" si="26"/>
+        <v>84.216141059429276</v>
+      </c>
+      <c r="M52" s="51">
+        <f t="shared" ref="M52:M57" si="28">G52/(G52+H52)*100</f>
+        <v>97.125037902940534</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E53" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="24"/>
+        <v>26665697</v>
+      </c>
+      <c r="G53">
+        <v>20248244</v>
+      </c>
+      <c r="H53">
+        <v>542445</v>
+      </c>
+      <c r="I53">
+        <v>3579507</v>
+      </c>
+      <c r="J53">
+        <v>2295501</v>
+      </c>
+      <c r="K53" s="63">
+        <f t="shared" si="25"/>
+        <v>85.334117098592387</v>
+      </c>
+      <c r="L53" s="63">
+        <f t="shared" si="26"/>
+        <v>75.93367613829858</v>
+      </c>
+      <c r="M53" s="59">
+        <f t="shared" si="28"/>
+        <v>97.390923408069824</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E54" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="T51" s="30">
-        <f t="shared" si="53"/>
+      <c r="F54" s="55">
+        <f t="shared" si="24"/>
         <v>26665697</v>
       </c>
-      <c r="U51" s="30">
-        <v>20787725</v>
-      </c>
-      <c r="V51" s="30">
-        <v>47083</v>
-      </c>
-      <c r="W51" s="23">
-        <v>5672573</v>
-      </c>
-      <c r="X51" s="30">
-        <v>158316</v>
-      </c>
-      <c r="Y51" s="30">
-        <f t="shared" si="54"/>
-        <v>87.526332614779562</v>
-      </c>
-      <c r="Z51" s="30">
-        <f t="shared" si="55"/>
-        <v>77.956803454265611</v>
-      </c>
-      <c r="AA51" s="31">
-        <f t="shared" si="56"/>
-        <v>99.774017595938489</v>
-      </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C52" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="F52" s="63">
-        <f t="shared" si="49"/>
-        <v>23121557</v>
-      </c>
-      <c r="G52" s="63">
-        <v>22456821</v>
-      </c>
-      <c r="H52" s="63">
-        <v>664736</v>
-      </c>
-      <c r="I52" s="63">
-        <v>0</v>
-      </c>
-      <c r="J52" s="63">
-        <v>0</v>
-      </c>
-      <c r="K52" s="63">
-        <f t="shared" si="50"/>
-        <v>97.125037902940534</v>
-      </c>
-      <c r="L52" s="63">
-        <f t="shared" si="51"/>
-        <v>97.125037902940534</v>
-      </c>
-      <c r="M52" s="64">
-        <f t="shared" ref="M52:M57" si="57">G52/(G52+H52)*100</f>
-        <v>97.125037902940534</v>
-      </c>
-      <c r="N52" s="61"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="61"/>
-      <c r="Q52" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R52" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="S52" s="62" t="s">
-        <v>180</v>
-      </c>
-      <c r="T52" s="63">
-        <f t="shared" si="53"/>
-        <v>26665697</v>
-      </c>
-      <c r="U52" s="63">
-        <v>22456821</v>
-      </c>
-      <c r="V52" s="63">
-        <v>664736</v>
-      </c>
-      <c r="W52" s="63">
-        <v>3544140</v>
-      </c>
-      <c r="X52" s="63">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="65">
-        <f t="shared" si="54"/>
-        <v>90.211125120497712</v>
-      </c>
-      <c r="Z52" s="65">
-        <f t="shared" si="55"/>
-        <v>84.216141059429276</v>
-      </c>
-      <c r="AA52" s="64">
-        <f t="shared" ref="AA52:AA57" si="58">U52/(U52+V52)*100</f>
-        <v>97.125037902940534</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="F53" s="61">
-        <f t="shared" si="49"/>
-        <v>23121557</v>
-      </c>
-      <c r="G53" s="61">
-        <v>20248244</v>
-      </c>
-      <c r="H53" s="61">
-        <v>542445</v>
-      </c>
-      <c r="I53" s="61">
-        <v>35367</v>
-      </c>
-      <c r="J53" s="61">
-        <v>2295501</v>
-      </c>
-      <c r="K53" s="61">
-        <f t="shared" si="50"/>
-        <v>92.221399925660833</v>
-      </c>
-      <c r="L53" s="61">
-        <f t="shared" si="51"/>
-        <v>87.573012492195062</v>
-      </c>
-      <c r="M53" s="73">
-        <f t="shared" si="57"/>
-        <v>97.390923408069824</v>
-      </c>
-      <c r="N53" s="61"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="61"/>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
-      <c r="S53" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="T53" s="61">
-        <f t="shared" si="53"/>
-        <v>26665697</v>
-      </c>
-      <c r="U53" s="61">
-        <v>20248244</v>
-      </c>
-      <c r="V53" s="61">
-        <v>542445</v>
-      </c>
-      <c r="W53" s="61">
-        <v>3579507</v>
-      </c>
-      <c r="X53" s="61">
-        <v>2295501</v>
-      </c>
-      <c r="Y53" s="77">
-        <f t="shared" si="54"/>
-        <v>85.334117098592387</v>
-      </c>
-      <c r="Z53" s="77">
-        <f t="shared" si="55"/>
-        <v>75.93367613829858</v>
-      </c>
-      <c r="AA53" s="73">
-        <f t="shared" si="58"/>
-        <v>97.390923408069824</v>
-      </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="F54" s="68">
-        <f t="shared" si="49"/>
-        <v>23121557</v>
-      </c>
-      <c r="G54" s="68">
+      <c r="G54" s="55">
         <v>22897785</v>
       </c>
-      <c r="H54" s="68">
+      <c r="H54" s="55">
         <v>47554</v>
       </c>
-      <c r="I54" s="68">
-        <v>2065</v>
-      </c>
-      <c r="J54" s="68">
+      <c r="I54" s="55">
+        <v>3546205</v>
+      </c>
+      <c r="J54" s="55">
         <v>174153</v>
       </c>
-      <c r="K54" s="68">
-        <f t="shared" si="50"/>
-        <v>99.411017403907564</v>
-      </c>
-      <c r="L54" s="68">
-        <f t="shared" si="51"/>
-        <v>99.032193203943834</v>
-      </c>
-      <c r="M54" s="69">
-        <f t="shared" si="57"/>
+      <c r="K54" s="57">
+        <f t="shared" si="25"/>
+        <v>92.309239420035496</v>
+      </c>
+      <c r="L54" s="57">
+        <f t="shared" si="26"/>
+        <v>85.869816191191248</v>
+      </c>
+      <c r="M54" s="56">
+        <f t="shared" si="28"/>
         <v>99.792750937347236</v>
       </c>
-      <c r="N54" s="61"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="61"/>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="T54" s="68">
-        <f t="shared" si="53"/>
-        <v>26665697</v>
-      </c>
-      <c r="U54" s="68">
-        <v>22897785</v>
-      </c>
-      <c r="V54" s="68">
-        <v>47554</v>
-      </c>
-      <c r="W54" s="68">
-        <v>3546205</v>
-      </c>
-      <c r="X54" s="68">
-        <v>174153</v>
-      </c>
-      <c r="Y54" s="70">
-        <f t="shared" si="54"/>
-        <v>92.309239420035496</v>
-      </c>
-      <c r="Z54" s="70">
-        <f t="shared" si="55"/>
-        <v>85.869816191191248</v>
-      </c>
-      <c r="AA54" s="69">
-        <f t="shared" si="58"/>
-        <v>99.792750937347236</v>
-      </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C55" s="23" t="s">
         <v>153</v>
       </c>
@@ -11801,152 +10006,78 @@
       <c r="E55" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="F55" s="79">
-        <f t="shared" si="49"/>
+      <c r="F55" s="23">
+        <f t="shared" si="24"/>
         <v>26665697</v>
       </c>
-      <c r="G55" s="79">
+      <c r="G55" s="23">
         <v>19810875</v>
       </c>
-      <c r="H55" s="79">
+      <c r="H55" s="23">
         <v>1183997</v>
       </c>
-      <c r="I55" s="79">
+      <c r="I55" s="23">
         <v>5670825</v>
       </c>
-      <c r="J55" s="79">
+      <c r="J55" s="23">
         <v>0</v>
       </c>
-      <c r="K55" s="79">
-        <f t="shared" si="50"/>
+      <c r="K55" s="23">
+        <f t="shared" si="25"/>
         <v>83.133187100640782</v>
       </c>
-      <c r="L55" s="79">
-        <f t="shared" si="51"/>
+      <c r="L55" s="23">
+        <f t="shared" si="26"/>
         <v>74.293482746766387</v>
       </c>
       <c r="M55" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="28"/>
         <v>94.360541945671301</v>
       </c>
-      <c r="N55" s="61"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="61"/>
-      <c r="Q55" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="R55" s="23"/>
-      <c r="S55" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="T55" s="79">
-        <f t="shared" si="53"/>
-        <v>26665697</v>
-      </c>
-      <c r="U55" s="79">
-        <v>19810875</v>
-      </c>
-      <c r="V55" s="79">
-        <v>1183997</v>
-      </c>
-      <c r="W55" s="79">
-        <v>5670825</v>
-      </c>
-      <c r="X55" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="79">
-        <f t="shared" si="54"/>
-        <v>83.133187100640782</v>
-      </c>
-      <c r="Z55" s="79">
-        <f t="shared" si="55"/>
-        <v>74.293482746766387</v>
-      </c>
-      <c r="AA55" s="33">
-        <f t="shared" si="58"/>
-        <v>94.360541945671301</v>
-      </c>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
       <c r="E56" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="F56" s="79">
-        <f t="shared" si="49"/>
+      <c r="F56" s="23">
+        <f t="shared" si="24"/>
         <v>26665697</v>
       </c>
-      <c r="G56" s="79">
+      <c r="G56" s="23">
         <v>17832097</v>
       </c>
-      <c r="H56" s="79">
+      <c r="H56" s="23">
         <v>1045126</v>
       </c>
-      <c r="I56" s="79">
+      <c r="I56" s="23">
         <v>5727495</v>
       </c>
-      <c r="J56" s="79">
+      <c r="J56" s="23">
         <v>2060979</v>
       </c>
-      <c r="K56" s="79">
-        <f t="shared" si="50"/>
+      <c r="K56" s="23">
+        <f t="shared" si="25"/>
         <v>78.308975357750441</v>
       </c>
-      <c r="L56" s="79">
-        <f t="shared" si="51"/>
+      <c r="L56" s="23">
+        <f t="shared" si="26"/>
         <v>66.872795412023166</v>
       </c>
       <c r="M56" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="28"/>
         <v>94.463560662497869</v>
       </c>
-      <c r="N56" s="61"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="61"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="T56" s="79">
-        <f t="shared" si="53"/>
-        <v>26665697</v>
-      </c>
-      <c r="U56" s="79">
-        <v>17832097</v>
-      </c>
-      <c r="V56" s="79">
-        <v>1045126</v>
-      </c>
-      <c r="W56" s="79">
-        <v>5727495</v>
-      </c>
-      <c r="X56" s="79">
-        <v>2060979</v>
-      </c>
-      <c r="Y56" s="79">
-        <f t="shared" si="54"/>
-        <v>78.308975357750441</v>
-      </c>
-      <c r="Z56" s="79">
-        <f t="shared" si="55"/>
-        <v>66.872795412023166</v>
-      </c>
-      <c r="AA56" s="33">
-        <f t="shared" si="58"/>
-        <v>94.463560662497869</v>
-      </c>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
       <c r="E57" s="29" t="s">
         <v>178</v>
       </c>
       <c r="F57" s="30">
-        <f t="shared" si="49"/>
+        <f t="shared" si="24"/>
         <v>26665697</v>
       </c>
       <c r="G57" s="30">
@@ -11962,272 +10093,121 @@
         <v>158305</v>
       </c>
       <c r="K57" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="25"/>
         <v>87.247687156168112</v>
       </c>
       <c r="L57" s="30">
-        <f t="shared" si="51"/>
+        <f t="shared" si="26"/>
         <v>77.708623179810374</v>
       </c>
       <c r="M57" s="31">
-        <f t="shared" si="57"/>
+        <f t="shared" si="28"/>
         <v>99.456380879535828</v>
       </c>
-      <c r="N57" s="61"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="61"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="29" t="s">
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58:F60" si="29">G58+H58+I58+J58</f>
+        <v>28552988</v>
+      </c>
+      <c r="G58">
+        <v>12578789</v>
+      </c>
+      <c r="H58">
+        <v>397031</v>
+      </c>
+      <c r="I58">
+        <v>13689877</v>
+      </c>
+      <c r="J58">
+        <v>1887291</v>
+      </c>
+      <c r="K58">
+        <f t="shared" ref="K58:K60" si="30">2/(1/L58+1/M58)</f>
+        <v>60.578618100476177</v>
+      </c>
+      <c r="L58">
+        <f t="shared" ref="L58:L60" si="31">G58/F58*100</f>
+        <v>44.054194958510124</v>
+      </c>
+      <c r="M58" s="59">
+        <f t="shared" ref="M58:M60" si="32">G58/(G58+H58)*100</f>
+        <v>96.940224201630414</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E59" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="29"/>
+        <v>26665697</v>
+      </c>
+      <c r="G59">
+        <v>11341499</v>
+      </c>
+      <c r="H59">
+        <v>327520</v>
+      </c>
+      <c r="I59">
+        <v>13706803</v>
+      </c>
+      <c r="J59">
+        <v>1289875</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="30"/>
+        <v>59.170903992089052</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="31"/>
+        <v>42.53216782595257</v>
+      </c>
+      <c r="M59" s="59">
+        <f t="shared" si="32"/>
+        <v>97.193251634948922</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E60" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="T57" s="30">
-        <f t="shared" si="53"/>
+      <c r="F60" s="55">
+        <f t="shared" si="29"/>
         <v>26665697</v>
       </c>
-      <c r="U57" s="30">
-        <v>20721546</v>
-      </c>
-      <c r="V57" s="30">
-        <v>113262</v>
-      </c>
-      <c r="W57" s="30">
-        <v>5672584</v>
-      </c>
-      <c r="X57" s="30">
-        <v>158305</v>
-      </c>
-      <c r="Y57" s="30">
-        <f t="shared" si="54"/>
-        <v>87.247687156168112</v>
-      </c>
-      <c r="Z57" s="30">
-        <f t="shared" si="55"/>
-        <v>77.708623179810374</v>
-      </c>
-      <c r="AA57" s="31">
-        <f t="shared" si="58"/>
-        <v>99.456380879535828</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C58" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="61"/>
-      <c r="E58" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="F58" s="61">
-        <f>G58+H58+I58+J58</f>
-        <v>26665697</v>
-      </c>
-      <c r="G58" s="60">
-        <v>12578789</v>
-      </c>
-      <c r="H58" s="60">
-        <v>397030</v>
-      </c>
-      <c r="I58" s="60">
-        <v>13689878</v>
-      </c>
-      <c r="J58" s="60">
-        <v>0</v>
-      </c>
-      <c r="K58" s="61">
-        <f>2/(1/L58+1/M58)</f>
-        <v>63.46270410041835</v>
-      </c>
-      <c r="L58" s="61">
-        <f>G58/F58*100</f>
-        <v>47.172174048178825</v>
-      </c>
-      <c r="M58" s="73">
-        <f>G58/(G58+H58)*100</f>
-        <v>96.940231672467064</v>
-      </c>
-      <c r="N58" s="61"/>
-      <c r="O58" s="61"/>
-      <c r="P58" s="61"/>
-      <c r="Q58" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="R58" s="61"/>
-      <c r="S58" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="T58" s="60">
-        <f t="shared" ref="T58:T60" si="59">U58+V58+W58+X58</f>
-        <v>28552988</v>
-      </c>
-      <c r="U58" s="60">
-        <v>12578789</v>
-      </c>
-      <c r="V58" s="60">
-        <v>397031</v>
-      </c>
-      <c r="W58" s="60">
-        <v>13689877</v>
-      </c>
-      <c r="X58" s="60">
-        <v>1887291</v>
-      </c>
-      <c r="Y58" s="60">
-        <f t="shared" ref="Y58:Y60" si="60">2/(1/Z58+1/AA58)</f>
-        <v>60.578618100476177</v>
-      </c>
-      <c r="Z58" s="60">
-        <f t="shared" ref="Z58:Z60" si="61">U58/T58*100</f>
-        <v>44.054194958510124</v>
-      </c>
-      <c r="AA58" s="73">
-        <f t="shared" ref="AA58:AA60" si="62">U58/(U58+V58)*100</f>
-        <v>96.940224201630414</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="F59" s="61">
-        <f>G59+H59+I59+J59</f>
-        <v>26665697</v>
-      </c>
-      <c r="G59" s="60">
-        <v>11341499</v>
-      </c>
-      <c r="H59" s="60">
-        <v>327519</v>
-      </c>
-      <c r="I59" s="60">
-        <v>13706804</v>
-      </c>
-      <c r="J59" s="60">
-        <v>1289875</v>
-      </c>
-      <c r="K59" s="61">
-        <f>2/(1/L59+1/M59)</f>
-        <v>59.170905535622218</v>
-      </c>
-      <c r="L59" s="61">
-        <f>G59/F59*100</f>
-        <v>42.53216782595257</v>
-      </c>
-      <c r="M59" s="73">
-        <f>G59/(G59+H59)*100</f>
-        <v>97.193259964120372</v>
-      </c>
-      <c r="N59" s="61"/>
-      <c r="O59" s="61"/>
-      <c r="P59" s="61"/>
-      <c r="Q59" s="61"/>
-      <c r="R59" s="61"/>
-      <c r="S59" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="T59" s="60">
-        <f t="shared" si="59"/>
-        <v>26665697</v>
-      </c>
-      <c r="U59" s="60">
-        <v>11341499</v>
-      </c>
-      <c r="V59" s="60">
-        <v>327520</v>
-      </c>
-      <c r="W59" s="60">
-        <v>13706803</v>
-      </c>
-      <c r="X59" s="60">
-        <v>1289875</v>
-      </c>
-      <c r="Y59" s="60">
-        <f t="shared" si="60"/>
-        <v>59.170903992089052</v>
-      </c>
-      <c r="Z59" s="60">
-        <f t="shared" si="61"/>
-        <v>42.53216782595257</v>
-      </c>
-      <c r="AA59" s="73">
-        <f t="shared" si="62"/>
-        <v>97.193251634948922</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="F60" s="68">
-        <f>G60+H60+I60+J60</f>
-        <v>26665697</v>
-      </c>
-      <c r="G60" s="68">
+      <c r="G60" s="55">
         <v>12851268</v>
       </c>
-      <c r="H60" s="68">
-        <v>25791</v>
-      </c>
-      <c r="I60" s="68">
-        <v>13691121</v>
-      </c>
-      <c r="J60" s="68">
+      <c r="H60" s="55">
+        <v>25792</v>
+      </c>
+      <c r="I60" s="55">
+        <v>13691120</v>
+      </c>
+      <c r="J60" s="55">
         <v>97517</v>
       </c>
-      <c r="K60" s="68">
-        <f>2/(1/L60+1/M60)</f>
-        <v>64.999354116845069</v>
-      </c>
-      <c r="L60" s="68">
-        <f>G60/F60*100</f>
+      <c r="K60" s="55">
+        <f t="shared" si="30"/>
+        <v>64.999352473071113</v>
+      </c>
+      <c r="L60" s="55">
+        <f t="shared" si="31"/>
         <v>48.194007454596068</v>
       </c>
-      <c r="M60" s="69">
-        <f>G60/(G60+H60)*100</f>
-        <v>99.799713583668449</v>
-      </c>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="61"/>
-      <c r="S60" s="67" t="s">
-        <v>178</v>
-      </c>
-      <c r="T60" s="68">
-        <f t="shared" si="59"/>
-        <v>26665697</v>
-      </c>
-      <c r="U60" s="68">
-        <v>12851268</v>
-      </c>
-      <c r="V60" s="68">
-        <v>25792</v>
-      </c>
-      <c r="W60" s="68">
-        <v>13691120</v>
-      </c>
-      <c r="X60" s="68">
-        <v>97517</v>
-      </c>
-      <c r="Y60" s="68">
-        <f t="shared" si="60"/>
-        <v>64.999352473071113</v>
-      </c>
-      <c r="Z60" s="68">
-        <f t="shared" si="61"/>
-        <v>48.194007454596068</v>
-      </c>
-      <c r="AA60" s="69">
-        <f t="shared" si="62"/>
+      <c r="M60" s="56">
+        <f t="shared" si="32"/>
         <v>99.799705833474405</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C61" s="23" t="s">
         <v>212</v>
       </c>
@@ -12235,364 +10215,173 @@
       <c r="E61" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="F61" s="79">
-        <f t="shared" ref="F61:F65" si="63">G61+H61+I61+J61</f>
+      <c r="F61" s="23">
+        <f t="shared" ref="F61:F62" si="33">G61+H61+I61+J61</f>
         <v>26665697</v>
       </c>
-      <c r="G61" s="79">
+      <c r="G61" s="23">
         <v>71379</v>
       </c>
-      <c r="H61" s="79">
-        <v>21753294</v>
-      </c>
-      <c r="I61" s="79">
-        <v>4841024</v>
-      </c>
-      <c r="J61" s="79">
+      <c r="H61" s="23">
+        <v>21753295</v>
+      </c>
+      <c r="I61" s="23">
+        <v>4841023</v>
+      </c>
+      <c r="J61" s="23">
         <v>0</v>
       </c>
-      <c r="K61" s="79">
-        <f t="shared" ref="K61:K65" si="64">2/(1/L61+1/M61)</f>
-        <v>0.29440484780792558</v>
-      </c>
-      <c r="L61" s="79">
-        <f t="shared" ref="L61:L65" si="65">G61/F61*100</f>
+      <c r="K61" s="23">
+        <f t="shared" ref="K61:K62" si="34">2/(1/L61+1/M61)</f>
+        <v>0.2944048417365171</v>
+      </c>
+      <c r="L61" s="23">
+        <f t="shared" ref="L61:L62" si="35">G61/F61*100</f>
         <v>0.26768098354976433</v>
       </c>
       <c r="M61" s="33">
         <f>G61/(G61+H61)*100</f>
-        <v>0.32705644661892525</v>
-      </c>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="R61" s="23"/>
-      <c r="S61" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="T61" s="79">
-        <f t="shared" ref="T61:T62" si="66">U61+V61+W61+X61</f>
-        <v>26665697</v>
-      </c>
-      <c r="U61" s="79">
-        <v>71379</v>
-      </c>
-      <c r="V61" s="79">
-        <v>21753295</v>
-      </c>
-      <c r="W61" s="79">
-        <v>4841023</v>
-      </c>
-      <c r="X61" s="79">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="79">
-        <f t="shared" ref="Y61:Y62" si="67">2/(1/Z61+1/AA61)</f>
-        <v>0.2944048417365171</v>
-      </c>
-      <c r="Z61" s="79">
-        <f t="shared" ref="Z61:Z62" si="68">U61/T61*100</f>
-        <v>0.26768098354976433</v>
-      </c>
-      <c r="AA61" s="33">
-        <f>U61/(U61+V61)*100</f>
         <v>0.32705643163329723</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C62" s="23"/>
       <c r="D62" s="23"/>
-      <c r="E62" s="80" t="s">
+      <c r="E62" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="F62" s="81">
-        <f t="shared" si="63"/>
+      <c r="F62" s="30">
+        <f t="shared" si="33"/>
         <v>26665697</v>
       </c>
-      <c r="G62" s="81">
+      <c r="G62" s="30">
         <v>21134414</v>
       </c>
-      <c r="H62" s="81">
-        <v>690259</v>
-      </c>
-      <c r="I62" s="81">
-        <v>4841024</v>
-      </c>
-      <c r="J62" s="81">
+      <c r="H62" s="30">
+        <v>690260</v>
+      </c>
+      <c r="I62" s="30">
+        <v>4841023</v>
+      </c>
+      <c r="J62" s="30">
         <v>0</v>
       </c>
-      <c r="K62" s="81">
-        <f t="shared" si="64"/>
-        <v>87.169530774873436</v>
-      </c>
-      <c r="L62" s="81">
-        <f t="shared" si="65"/>
+      <c r="K62" s="30">
+        <f t="shared" si="34"/>
+        <v>87.169528977206625</v>
+      </c>
+      <c r="L62" s="30">
+        <f t="shared" si="35"/>
         <v>79.256934480280037</v>
       </c>
-      <c r="M62" s="82">
+      <c r="M62" s="31">
         <f>G62/(G62+H62)*100</f>
-        <v>96.837253873173722</v>
-      </c>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="61"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="29" t="s">
+        <v>96.837249436119862</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63:F70" si="36">G63+H63+I63+J63</f>
+        <v>26665697</v>
+      </c>
+      <c r="G63">
+        <v>20826872</v>
+      </c>
+      <c r="H63">
+        <v>452501</v>
+      </c>
+      <c r="I63">
+        <v>5386324</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ref="K63:K70" si="37">2/(1/L63+1/M63)</f>
+        <v>86.878054406845152</v>
+      </c>
+      <c r="L63">
+        <f t="shared" ref="L63:L70" si="38">G63/F63*100</f>
+        <v>78.10361004252016</v>
+      </c>
+      <c r="M63" s="64">
+        <f t="shared" ref="M63:M65" si="39">G63/(G63+H63)*100</f>
+        <v>97.873522871186097</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="E64" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="36"/>
+        <v>26665697</v>
+      </c>
+      <c r="G64">
+        <v>19056073</v>
+      </c>
+      <c r="H64">
+        <v>295970</v>
+      </c>
+      <c r="I64">
+        <v>5426363</v>
+      </c>
+      <c r="J64">
+        <v>1887291</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="37"/>
+        <v>82.820551378663978</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="38"/>
+        <v>71.462872318694693</v>
+      </c>
+      <c r="M64" s="64">
+        <f t="shared" si="39"/>
+        <v>98.470600752592375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E65" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="T62" s="30">
-        <f t="shared" si="66"/>
+      <c r="F65" s="61">
+        <f t="shared" si="36"/>
         <v>26665697</v>
       </c>
-      <c r="U62" s="30">
-        <v>21134414</v>
-      </c>
-      <c r="V62" s="30">
-        <v>690260</v>
-      </c>
-      <c r="W62" s="30">
-        <v>4841023</v>
-      </c>
-      <c r="X62" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="30">
-        <f t="shared" si="67"/>
-        <v>87.169528977206625</v>
-      </c>
-      <c r="Z62" s="30">
-        <f t="shared" si="68"/>
-        <v>79.256934480280037</v>
-      </c>
-      <c r="AA62" s="31">
-        <f>U62/(U62+V62)*100</f>
-        <v>96.837249436119862</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C63" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="F63" s="61">
-        <f t="shared" si="63"/>
-        <v>26665697</v>
-      </c>
-      <c r="G63" s="61">
-        <v>20826872</v>
-      </c>
-      <c r="H63" s="61">
-        <v>452500</v>
-      </c>
-      <c r="I63" s="61">
-        <v>5386325</v>
-      </c>
-      <c r="J63" s="61">
-        <v>0</v>
-      </c>
-      <c r="K63" s="61">
-        <f t="shared" si="64"/>
-        <v>86.878056218878314</v>
-      </c>
-      <c r="L63" s="61">
-        <f t="shared" si="65"/>
-        <v>78.10361004252016</v>
-      </c>
-      <c r="M63" s="73">
-        <f t="shared" ref="M63:M65" si="69">G63/(G63+H63)*100</f>
-        <v>97.87352747064152</v>
-      </c>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="R63" s="61"/>
-      <c r="S63" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="T63" s="61">
-        <f>U63+V63+W63+X63</f>
-        <v>26665697</v>
-      </c>
-      <c r="U63" s="61">
-        <v>20826872</v>
-      </c>
-      <c r="V63" s="61">
-        <v>452501</v>
-      </c>
-      <c r="W63" s="61">
-        <v>5386324</v>
-      </c>
-      <c r="X63" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="61">
-        <f>2/(1/Z63+1/AA63)</f>
-        <v>86.878054406845152</v>
-      </c>
-      <c r="Z63" s="61">
-        <f>U63/T63*100</f>
-        <v>78.10361004252016</v>
-      </c>
-      <c r="AA63" s="78">
-        <f t="shared" ref="AA63:AA65" si="70">U63/(U63+V63)*100</f>
-        <v>97.873522871186097</v>
-      </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="F64" s="61">
-        <f t="shared" si="63"/>
-        <v>26665697</v>
-      </c>
-      <c r="G64" s="61">
-        <v>19056073</v>
-      </c>
-      <c r="H64" s="61">
-        <v>295969</v>
-      </c>
-      <c r="I64" s="61">
-        <f>40039+5386325</f>
-        <v>5426364</v>
-      </c>
-      <c r="J64" s="61">
-        <v>1887291</v>
-      </c>
-      <c r="K64" s="61">
-        <f t="shared" si="64"/>
-        <v>82.820553178416702</v>
-      </c>
-      <c r="L64" s="61">
-        <f t="shared" si="65"/>
-        <v>71.462872318694693</v>
-      </c>
-      <c r="M64" s="73">
-        <f t="shared" si="69"/>
-        <v>98.470605840975338</v>
-      </c>
-      <c r="N64" s="61"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="61"/>
-      <c r="S64" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="T64" s="61">
-        <f>U64+V64+W64+X64</f>
-        <v>26665697</v>
-      </c>
-      <c r="U64" s="61">
-        <v>19056073</v>
-      </c>
-      <c r="V64" s="61">
-        <v>295970</v>
-      </c>
-      <c r="W64" s="61">
-        <v>5426363</v>
-      </c>
-      <c r="X64" s="61">
-        <v>1887291</v>
-      </c>
-      <c r="Y64" s="61">
-        <f>2/(1/Z64+1/AA64)</f>
-        <v>82.820551378663978</v>
-      </c>
-      <c r="Z64" s="61">
-        <f>U64/T64*100</f>
-        <v>71.462872318694693</v>
-      </c>
-      <c r="AA64" s="78">
-        <f t="shared" si="70"/>
-        <v>98.470600752592375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="F65" s="75">
-        <f t="shared" si="63"/>
-        <v>26665697</v>
-      </c>
-      <c r="G65" s="75">
+      <c r="G65" s="61">
         <v>20979463</v>
       </c>
-      <c r="H65" s="75">
-        <v>114364</v>
-      </c>
-      <c r="I65" s="75">
-        <f>2192+5386325</f>
-        <v>5388517</v>
-      </c>
-      <c r="J65" s="75">
+      <c r="H65" s="61">
+        <v>114365</v>
+      </c>
+      <c r="I65" s="61">
+        <v>5388516</v>
+      </c>
+      <c r="J65" s="61">
         <v>183353</v>
       </c>
-      <c r="K65" s="75">
-        <f t="shared" si="64"/>
-        <v>87.854573257472168</v>
-      </c>
-      <c r="L65" s="75">
-        <f t="shared" si="65"/>
+      <c r="K65" s="61">
+        <f t="shared" si="37"/>
+        <v>87.854571417952755</v>
+      </c>
+      <c r="L65" s="61">
+        <f t="shared" si="38"/>
         <v>78.675847100490188</v>
       </c>
-      <c r="M65" s="76">
-        <f t="shared" si="69"/>
-        <v>99.45783190504028</v>
-      </c>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="61"/>
-      <c r="S65" s="74" t="s">
-        <v>178</v>
-      </c>
-      <c r="T65" s="75">
-        <f>U65+V65+W65+X65</f>
-        <v>26665697</v>
-      </c>
-      <c r="U65" s="75">
-        <v>20979463</v>
-      </c>
-      <c r="V65" s="75">
-        <v>114365</v>
-      </c>
-      <c r="W65" s="75">
-        <v>5388516</v>
-      </c>
-      <c r="X65" s="75">
-        <v>183353</v>
-      </c>
-      <c r="Y65" s="75">
-        <f>2/(1/Z65+1/AA65)</f>
-        <v>87.854571417952755</v>
-      </c>
-      <c r="Z65" s="75">
-        <f>U65/T65*100</f>
-        <v>78.675847100490188</v>
-      </c>
-      <c r="AA65" s="76">
-        <f t="shared" si="70"/>
+      <c r="M65" s="62">
+        <f t="shared" si="39"/>
         <v>99.457827190019756</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>182</v>
       </c>
@@ -12609,7 +10398,7 @@
         <v>180</v>
       </c>
       <c r="F66" s="23">
-        <f>G66+H66+I66+J66</f>
+        <f t="shared" si="36"/>
         <v>950780</v>
       </c>
       <c r="G66" s="23">
@@ -12624,143 +10413,59 @@
       <c r="J66" s="23">
         <v>0</v>
       </c>
-      <c r="K66" s="23">
-        <f>2/(1/L66+1/M66)</f>
+      <c r="K66" s="39">
+        <f t="shared" si="37"/>
         <v>74.02900776204801</v>
       </c>
-      <c r="L66" s="23">
-        <f>G66/F66*100</f>
+      <c r="L66" s="39">
+        <f t="shared" si="38"/>
         <v>74.02900776204801</v>
       </c>
-      <c r="M66" s="33">
+      <c r="M66" s="40">
         <f>G66/(G66+H66)*100</f>
         <v>74.02900776204801</v>
       </c>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="P66" s="61" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q66" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="R66" s="23" t="s">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
         <v>2</v>
       </c>
-      <c r="S66" s="32" t="s">
+      <c r="E67" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="T66" s="23">
-        <f>U66+V66+W66+X66</f>
+      <c r="F67">
+        <f t="shared" si="36"/>
         <v>950780</v>
       </c>
-      <c r="U66" s="23">
-        <v>703853</v>
-      </c>
-      <c r="V66" s="23">
-        <v>246927</v>
-      </c>
-      <c r="W66" s="23">
+      <c r="G67">
+        <v>275832</v>
+      </c>
+      <c r="H67">
+        <v>674948</v>
+      </c>
+      <c r="I67">
         <v>0</v>
       </c>
-      <c r="X66" s="23">
+      <c r="J67">
         <v>0</v>
       </c>
-      <c r="Y66" s="39">
-        <f>2/(1/Z66+1/AA66)</f>
-        <v>74.02900776204801</v>
-      </c>
-      <c r="Z66" s="39">
-        <f>U66/T66*100</f>
-        <v>74.02900776204801</v>
-      </c>
-      <c r="AA66" s="40">
-        <f>U66/(U66+V66)*100</f>
-        <v>74.02900776204801</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C67" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="F67" s="61">
-        <f>G67+H67+I67+J67</f>
-        <v>950780</v>
-      </c>
-      <c r="G67" s="61">
-        <v>275832</v>
-      </c>
-      <c r="H67" s="61">
-        <v>674948</v>
-      </c>
-      <c r="I67" s="61">
-        <v>0</v>
-      </c>
-      <c r="J67" s="61">
-        <v>0</v>
-      </c>
-      <c r="K67" s="61">
-        <f>2/(1/L67+1/M67)</f>
+      <c r="K67">
+        <f t="shared" si="37"/>
         <v>29.011127705673236</v>
       </c>
-      <c r="L67" s="61">
-        <f>G67/F67*100</f>
+      <c r="L67">
+        <f t="shared" si="38"/>
         <v>29.011127705673236</v>
       </c>
-      <c r="M67" s="73">
+      <c r="M67" s="59">
         <f>G67/(G67+H67)*100</f>
         <v>29.011127705673236</v>
       </c>
-      <c r="N67" s="61"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="R67" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="S67" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="T67" s="61">
-        <f>U67+V67+W67+X67</f>
-        <v>950780</v>
-      </c>
-      <c r="U67" s="61">
-        <v>275832</v>
-      </c>
-      <c r="V67" s="61">
-        <v>674948</v>
-      </c>
-      <c r="W67" s="61">
-        <v>0</v>
-      </c>
-      <c r="X67" s="61">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="61">
-        <f>2/(1/Z67+1/AA67)</f>
-        <v>29.011127705673236</v>
-      </c>
-      <c r="Z67" s="61">
-        <f>U67/T67*100</f>
-        <v>29.011127705673236</v>
-      </c>
-      <c r="AA67" s="73">
-        <f>U67/(U67+V67)*100</f>
-        <v>29.011127705673236</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C68" s="23" t="s">
         <v>2</v>
       </c>
@@ -12769,7 +10474,7 @@
         <v>180</v>
       </c>
       <c r="F68" s="23">
-        <f>G68+H68+I68+J68</f>
+        <f t="shared" si="36"/>
         <v>950780</v>
       </c>
       <c r="G68" s="23">
@@ -12785,141 +10490,64 @@
         <v>0</v>
       </c>
       <c r="K68" s="23">
-        <f>2/(1/L68+1/M68)</f>
+        <f t="shared" si="37"/>
         <v>32.4565322287418</v>
       </c>
       <c r="L68" s="23">
-        <f>G68/F68*100</f>
+        <f t="shared" si="38"/>
         <v>32.437262037485013</v>
       </c>
       <c r="M68" s="33">
         <f>G68/(G68+H68)*100</f>
         <v>32.475825329515793</v>
       </c>
-      <c r="N68" s="61"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="R68" s="23"/>
-      <c r="S68" s="32" t="s">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="T68" s="23">
-        <f>U68+V68+W68+X68</f>
+      <c r="F69">
+        <f t="shared" si="36"/>
         <v>950780</v>
       </c>
-      <c r="U68" s="23">
-        <v>308407</v>
-      </c>
-      <c r="V68" s="23">
-        <v>641244</v>
-      </c>
-      <c r="W68" s="23">
-        <v>1129</v>
-      </c>
-      <c r="X68" s="23">
+      <c r="G69">
+        <v>306963</v>
+      </c>
+      <c r="H69">
+        <v>643816</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
         <v>0</v>
       </c>
-      <c r="Y68" s="23">
-        <f>2/(1/Z68+1/AA68)</f>
-        <v>32.4565322287418</v>
-      </c>
-      <c r="Z68" s="23">
-        <f>U68/T68*100</f>
-        <v>32.437262037485013</v>
-      </c>
-      <c r="AA68" s="33">
-        <f>U68/(U68+V68)*100</f>
-        <v>32.475825329515793</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C69" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="F69" s="60">
-        <f>G69+H69+I69+J69</f>
-        <v>950780</v>
-      </c>
-      <c r="G69" s="60">
-        <v>306963</v>
-      </c>
-      <c r="H69" s="60">
-        <v>643816</v>
-      </c>
-      <c r="I69" s="60">
-        <v>1</v>
-      </c>
-      <c r="J69" s="60">
-        <v>0</v>
-      </c>
-      <c r="K69" s="60">
-        <f>2/(1/L69+1/M69)</f>
+      <c r="K69">
+        <f t="shared" si="37"/>
         <v>32.285403713479305</v>
       </c>
-      <c r="L69" s="60">
-        <f>G69/F69*100</f>
+      <c r="L69">
+        <f t="shared" si="38"/>
         <v>32.28538673510171</v>
       </c>
-      <c r="M69" s="73">
+      <c r="M69" s="59">
         <f>G69/(G69+H69)*100</f>
         <v>32.285420691874769</v>
       </c>
-      <c r="N69" s="61"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="R69" s="61"/>
-      <c r="S69" s="72" t="s">
-        <v>180</v>
-      </c>
-      <c r="T69" s="60">
-        <f>U69+V69+W69+X69</f>
-        <v>950780</v>
-      </c>
-      <c r="U69" s="60">
-        <v>306963</v>
-      </c>
-      <c r="V69" s="60">
-        <v>643816</v>
-      </c>
-      <c r="W69" s="60">
-        <v>1</v>
-      </c>
-      <c r="X69" s="60">
-        <v>0</v>
-      </c>
-      <c r="Y69" s="60">
-        <f>2/(1/Z69+1/AA69)</f>
-        <v>32.285403713479305</v>
-      </c>
-      <c r="Z69" s="60">
-        <f>U69/T69*100</f>
-        <v>32.28538673510171</v>
-      </c>
-      <c r="AA69" s="73">
-        <f>U69/(U69+V69)*100</f>
-        <v>32.285420691874769</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C70" s="79" t="s">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C70" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="D70" s="79"/>
+      <c r="D70" s="23"/>
       <c r="E70" s="29" t="s">
         <v>180</v>
       </c>
       <c r="F70" s="30">
-        <f>G70+H70+I70+J70</f>
+        <f t="shared" si="36"/>
         <v>950780</v>
       </c>
       <c r="G70" s="30">
@@ -12935,67 +10563,17 @@
         <v>0</v>
       </c>
       <c r="K70" s="30">
-        <f>2/(1/L70+1/M70)</f>
+        <f t="shared" si="37"/>
         <v>30.948800255378018</v>
       </c>
       <c r="L70" s="30">
-        <f>G70/F70*100</f>
+        <f t="shared" si="38"/>
         <v>18.354508929510509</v>
       </c>
       <c r="M70" s="31">
         <f>G70/(G70+H70)*100</f>
         <v>98.616071428571431</v>
       </c>
-      <c r="N70" s="61"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="61"/>
-      <c r="Q70" s="79" t="s">
-        <v>224</v>
-      </c>
-      <c r="R70" s="79"/>
-      <c r="S70" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="T70" s="30">
-        <f>U70+V70+W70+X70</f>
-        <v>950780</v>
-      </c>
-      <c r="U70" s="30">
-        <v>174511</v>
-      </c>
-      <c r="V70" s="30">
-        <v>2449</v>
-      </c>
-      <c r="W70" s="30">
-        <v>773820</v>
-      </c>
-      <c r="X70" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="30">
-        <f>2/(1/Z70+1/AA70)</f>
-        <v>30.948800255378018</v>
-      </c>
-      <c r="Z70" s="30">
-        <f>U70/T70*100</f>
-        <v>18.354508929510509</v>
-      </c>
-      <c r="AA70" s="31">
-        <f>U70/(U70+V70)*100</f>
-        <v>98.616071428571431</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="Q71" s="58"/>
-      <c r="R71" s="58"/>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="Q72" s="58"/>
-      <c r="R72" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Appendix Tables.xlsx
+++ b/Appendix Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\School\Metagenomics Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E610D4CD-3909-47E1-A659-2F4479CB541B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEF8E6D-AFD1-49BE-B4CC-62D9CCB60D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{4967EA6C-997E-4E43-AD60-FEFE8549756F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{4967EA6C-997E-4E43-AD60-FEFE8549756F}"/>
   </bookViews>
   <sheets>
     <sheet name="A.1 Ecoli short reads" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="280">
   <si>
     <t>MORA</t>
   </si>
@@ -894,6 +894,42 @@
   </si>
   <si>
     <t>In fact, Mora was actually able to distinguish between the two Alpha strains. This is quite surprising due to how similar the two strains are, so we are not sure how correct this really is. Thus, in the paper we write the two Alpha strains as one.</t>
+  </si>
+  <si>
+    <t>SRA Runs</t>
+  </si>
+  <si>
+    <t>SRR10587526</t>
+  </si>
+  <si>
+    <t>SRR15497613</t>
+  </si>
+  <si>
+    <t>SRR15334628</t>
+  </si>
+  <si>
+    <t>Unlike in the prior simulated E. coli experiment, the strains were sufficiently different that Minimap2 by itself did pretty well, and Mora's re-assignment procedure did not change much for those 11 assigned strains.</t>
+  </si>
+  <si>
+    <t>This shows that Mora was able to identify the presence of all strains in the synthetic community, including very low abundance ones. Though Minimap2 had comparable assignment abundances with Mora in bulk, it was unable to identify the presence of very low abundance strains within the microbial community.</t>
+  </si>
+  <si>
+    <t>Using Minimap2 as the initial aligner, we ran Mora on 187,448 real long nanopore reads from a synthetic microbial community of 12 different microbial strains and compared it with just Minimap2 alone. Both were able to assign more than 800 reads to each of the 12 original strain with the exception of \textit{M. coxensis}.</t>
+  </si>
+  <si>
+    <t>However, the behavior for M. coxensis is instructive for the benefits of re-assignment.</t>
+  </si>
+  <si>
+    <t>Minimap2 assigned no reads to M. coxensis as primary alignments, but did include it as a secondary alignment for some reads.</t>
+  </si>
+  <si>
+    <t>Mora's prediction of abundance and the requirement of not allowing overshoots suggested the presence of some M. coxensis, and even with an extremely low predicted abundance, it assigned 11 reads to M. coxensis.</t>
+  </si>
+  <si>
+    <t>Note: The other contigs are full genome assemblies, whose name can be found on NCBI.</t>
+  </si>
+  <si>
+    <t>To calculate the difference in the different abundance values, root mean squared error (RMSE) was used. This was used due to the lack of major outliers.</t>
   </si>
 </sst>
 </file>
@@ -4485,10 +4521,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B702780A-FA6D-42E4-BF82-830F38984A4D}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4502,7 +4538,7 @@
     <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>207</v>
       </c>
@@ -4510,7 +4546,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="24" t="s">
         <v>153</v>
@@ -4528,7 +4564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>190</v>
       </c>
@@ -4548,7 +4584,7 @@
         <v>429740242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>191</v>
       </c>
@@ -4567,8 +4603,11 @@
       <c r="F4" s="18">
         <v>429510226</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>192</v>
       </c>
@@ -4587,8 +4626,11 @@
       <c r="F5" s="18">
         <v>440279783</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>193</v>
       </c>
@@ -4608,7 +4650,7 @@
         <v>311585192</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>194</v>
       </c>
@@ -4627,8 +4669,11 @@
       <c r="F7" s="18">
         <v>108296726</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>195</v>
       </c>
@@ -4647,8 +4692,11 @@
       <c r="F8" s="18">
         <v>182681588</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>196</v>
       </c>
@@ -4667,8 +4715,11 @@
       <c r="F9" s="18">
         <v>96455901</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>197</v>
       </c>
@@ -4687,8 +4738,11 @@
       <c r="F10" s="18">
         <v>33725281</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>198</v>
       </c>
@@ -4708,7 +4762,7 @@
         <v>44446369</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>199</v>
       </c>
@@ -4728,7 +4782,7 @@
         <v>31804034</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>200</v>
       </c>
@@ -4748,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>201</v>
       </c>
@@ -4768,7 +4822,7 @@
         <v>74261530</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>202</v>
       </c>
@@ -4788,7 +4842,7 @@
         <v>38154569</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>203</v>
       </c>
@@ -4889,7 +4943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13241D78-0921-483B-A422-027E2F42B1D2}">
   <dimension ref="A1:X68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -7460,10 +7514,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7CD7FD-6BAF-4C6D-B1EB-BB1440064E90}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8266,6 +8320,11 @@
         <v>253</v>
       </c>
       <c r="B31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>254</v>
       </c>
     </row>
@@ -8313,8 +8372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA81989-FB0A-4289-BA84-6A79E0F2D2A2}">
   <dimension ref="A2:M142"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13324,8 +13383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849A504B-E33B-4AF0-BA9D-B74710703D8F}">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13335,6 +13394,9 @@
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
@@ -13651,14 +13713,18 @@
         <f>bowtie2_abund[[#This Row],[Reads Assigned]]/30000</f>
         <v>7.223333333333333E-2</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="18" t="s">
         <v>237</v>
+      </c>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -13692,14 +13758,20 @@
         <f>bowtie2_abund[[#This Row],[Reads Assigned]]/30000</f>
         <v>5.043333333333333E-2</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="18">
         <v>96.4</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="18">
         <v>96.59</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -13733,11 +13805,18 @@
         <f>bowtie2_abund[[#This Row],[Reads Assigned]]/30000</f>
         <v>2.7366666666666668E-2</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="P8">
+      <c r="O8" s="18"/>
+      <c r="P8" s="18">
         <v>96.58</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -13771,6 +13850,12 @@
         <f>bowtie2_abund[[#This Row],[Reads Assigned]]/30000</f>
         <v>2.7266666666666668E-2</v>
       </c>
+      <c r="R9" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -13834,6 +13919,9 @@
       <c r="L11">
         <f>bowtie2_abund[[#This Row],[Reads Assigned]]/30000</f>
         <v>2.4500000000000001E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -15080,7 +15168,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
